--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.2 Padam Input Template.xlsx
@@ -4210,7 +4210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4422,6 +4422,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4706,8 +4709,8 @@
   <dimension ref="A1:Y1691"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A590" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X572" sqref="X572:X575"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T1676" sqref="T1676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39553,7 +39556,7 @@
       <c r="S1194" s="55" t="s">
         <v>1347</v>
       </c>
-      <c r="T1194" s="21" t="s">
+      <c r="T1194" s="76" t="s">
         <v>1358</v>
       </c>
       <c r="X1194" s="23" t="s">

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.2 Padam Input Template.xlsx
@@ -4708,9 +4708,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1676" sqref="T1676"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1435" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U1439" sqref="U1439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.2 Padam Input Template.xlsx
@@ -4793,8 +4793,8 @@
   <dimension ref="A1:W1691"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U1627" sqref="U1627"/>
+      <pane ySplit="1" topLeftCell="A1010" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S1014" sqref="S1014"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.2 Padam Input Template.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Raja Files\Padam Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\texts\TS Jatai Working\Raja Files\Padam Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4605" uniqueCount="1394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4606" uniqueCount="1394">
   <si>
     <t>Passage</t>
   </si>
@@ -4215,7 +4215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4793,8 +4793,8 @@
   <dimension ref="A1:W1691"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1010" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1014" sqref="S1014"/>
+      <pane ySplit="1" topLeftCell="A1595" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1599" sqref="N1599"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -51353,6 +51353,9 @@
         <v>1125</v>
       </c>
       <c r="O1599" s="13"/>
+      <c r="S1599" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="V1599" s="23"/>
       <c r="W1599" s="4"/>
     </row>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.2 Padam Input Template.xlsx
@@ -4924,9 +4924,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1686" sqref="H1686"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.2 Padam Input Template.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4891" uniqueCount="1435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4902" uniqueCount="1438">
   <si>
     <t>Passage</t>
   </si>
@@ -4333,6 +4333,15 @@
   </si>
   <si>
     <t>GS-1.2-51</t>
+  </si>
+  <si>
+    <t>PS-6.5</t>
+  </si>
+  <si>
+    <t>PS-6.4</t>
+  </si>
+  <si>
+    <t>PS-6-14</t>
   </si>
 </sst>
 </file>
@@ -4391,7 +4400,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4401,6 +4410,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4432,7 +4447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4640,6 +4655,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4924,9 +4942,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="D1594" sqref="D1594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24065,6 +24083,7 @@
       <c r="B648" s="4" t="s">
         <v>174</v>
       </c>
+      <c r="D648" s="75"/>
       <c r="E648" s="12"/>
       <c r="F648" s="12"/>
       <c r="G648" s="12"/>
@@ -24102,6 +24121,7 @@
       <c r="W648" s="4"/>
     </row>
     <row r="649" spans="2:23" ht="18" x14ac:dyDescent="0.25">
+      <c r="D649" s="75"/>
       <c r="E649" s="12"/>
       <c r="F649" s="12"/>
       <c r="G649" s="12"/>
@@ -24135,6 +24155,7 @@
       <c r="W649" s="4"/>
     </row>
     <row r="650" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D650" s="75"/>
       <c r="E650" s="12"/>
       <c r="F650" s="12"/>
       <c r="G650" s="12"/>
@@ -26700,7 +26721,9 @@
       <c r="W738" s="4"/>
     </row>
     <row r="739" spans="2:23" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="D739" s="35"/>
+      <c r="D739" s="11" t="s">
+        <v>190</v>
+      </c>
       <c r="E739" s="36"/>
       <c r="F739" s="36"/>
       <c r="G739" s="36"/>
@@ -26739,6 +26762,9 @@
       <c r="V739" s="23"/>
     </row>
     <row r="740" spans="2:23" ht="18" x14ac:dyDescent="0.25">
+      <c r="D740" s="11" t="s">
+        <v>190</v>
+      </c>
       <c r="E740" s="12"/>
       <c r="F740" s="12"/>
       <c r="G740" s="12"/>
@@ -34351,7 +34377,7 @@
       <c r="V1008" s="23"/>
       <c r="W1008" s="4"/>
     </row>
-    <row r="1009" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1009" s="12"/>
       <c r="F1009" s="12"/>
       <c r="G1009" s="12"/>
@@ -34378,7 +34404,7 @@
       <c r="V1009" s="23"/>
       <c r="W1009" s="4"/>
     </row>
-    <row r="1010" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1010" s="12"/>
       <c r="F1010" s="12"/>
       <c r="G1010" s="12"/>
@@ -34405,7 +34431,7 @@
       <c r="V1010" s="23"/>
       <c r="W1010" s="4"/>
     </row>
-    <row r="1011" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1011" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1011" s="12"/>
       <c r="F1011" s="12"/>
       <c r="G1011" s="12"/>
@@ -34432,7 +34458,7 @@
       <c r="V1011" s="23"/>
       <c r="W1011" s="4"/>
     </row>
-    <row r="1012" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1012" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1012" s="12"/>
       <c r="F1012" s="12"/>
       <c r="G1012" s="12"/>
@@ -34461,7 +34487,7 @@
       <c r="V1012" s="23"/>
       <c r="W1012" s="4"/>
     </row>
-    <row r="1013" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1013" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1013" s="12"/>
       <c r="F1013" s="12"/>
       <c r="G1013" s="12"/>
@@ -34490,7 +34516,10 @@
       <c r="V1013" s="23"/>
       <c r="W1013" s="4"/>
     </row>
-    <row r="1014" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1014" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1014" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="E1014" s="12"/>
       <c r="F1014" s="12"/>
       <c r="G1014" s="12"/>
@@ -34525,7 +34554,7 @@
       <c r="V1014" s="23"/>
       <c r="W1014" s="4"/>
     </row>
-    <row r="1015" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1015" s="12"/>
       <c r="F1015" s="12"/>
       <c r="G1015" s="12"/>
@@ -34554,7 +34583,7 @@
       <c r="V1015" s="23"/>
       <c r="W1015" s="4"/>
     </row>
-    <row r="1016" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1016" s="12"/>
       <c r="F1016" s="12"/>
       <c r="G1016" s="12"/>
@@ -34583,7 +34612,7 @@
       <c r="V1016" s="23"/>
       <c r="W1016" s="4"/>
     </row>
-    <row r="1017" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1017" s="12"/>
       <c r="F1017" s="12"/>
       <c r="G1017" s="12"/>
@@ -34610,7 +34639,7 @@
       <c r="V1017" s="23"/>
       <c r="W1017" s="4"/>
     </row>
-    <row r="1018" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1018" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1018" s="12"/>
       <c r="F1018" s="12"/>
       <c r="G1018" s="12"/>
@@ -34637,7 +34666,7 @@
       <c r="V1018" s="23"/>
       <c r="W1018" s="4"/>
     </row>
-    <row r="1019" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1019" s="12"/>
       <c r="F1019" s="12"/>
       <c r="G1019" s="12"/>
@@ -34664,7 +34693,7 @@
       <c r="V1019" s="23"/>
       <c r="W1019" s="4"/>
     </row>
-    <row r="1020" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1020" s="12"/>
       <c r="F1020" s="12"/>
       <c r="G1020" s="12"/>
@@ -34695,7 +34724,7 @@
       </c>
       <c r="W1020" s="4"/>
     </row>
-    <row r="1021" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1021" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1021" s="12"/>
       <c r="F1021" s="12"/>
       <c r="G1021" s="12"/>
@@ -34722,7 +34751,7 @@
       <c r="V1021" s="23"/>
       <c r="W1021" s="4"/>
     </row>
-    <row r="1022" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1022" s="12"/>
       <c r="F1022" s="12"/>
       <c r="G1022" s="12"/>
@@ -34749,7 +34778,7 @@
       <c r="V1022" s="23"/>
       <c r="W1022" s="4"/>
     </row>
-    <row r="1023" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1023" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1023" s="12"/>
       <c r="F1023" s="12"/>
       <c r="G1023" s="12"/>
@@ -34776,7 +34805,7 @@
       <c r="V1023" s="23"/>
       <c r="W1023" s="4"/>
     </row>
-    <row r="1024" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1024" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1024" s="12"/>
       <c r="F1024" s="12"/>
       <c r="G1024" s="12"/>
@@ -39601,6 +39630,9 @@
       <c r="W1192" s="4"/>
     </row>
     <row r="1193" spans="2:23" ht="18" x14ac:dyDescent="0.25">
+      <c r="C1193" s="4" t="s">
+        <v>1435</v>
+      </c>
       <c r="E1193" s="12"/>
       <c r="F1193" s="12"/>
       <c r="G1193" s="12"/>
@@ -39634,6 +39666,9 @@
     <row r="1194" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="B1194" s="2" t="s">
         <v>172</v>
+      </c>
+      <c r="C1194" s="4" t="s">
+        <v>1435</v>
       </c>
       <c r="E1194" s="12"/>
       <c r="F1194" s="12"/>
@@ -49736,6 +49771,9 @@
       <c r="C1526" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="D1526" s="11" t="s">
+        <v>1436</v>
+      </c>
       <c r="E1526" s="12"/>
       <c r="F1526" s="12"/>
       <c r="G1526" s="12"/>
@@ -49761,12 +49799,21 @@
         <v>1226</v>
       </c>
       <c r="O1526" s="13"/>
+      <c r="S1526" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1526" s="10" t="s">
+        <v>98</v>
+      </c>
       <c r="V1526" s="23"/>
       <c r="W1526" s="4"/>
     </row>
     <row r="1527" spans="3:23" ht="18" x14ac:dyDescent="0.25">
       <c r="C1527" s="4" t="s">
         <v>65</v>
+      </c>
+      <c r="D1527" s="11" t="s">
+        <v>1436</v>
       </c>
       <c r="E1527" s="12"/>
       <c r="F1527" s="12"/>
@@ -50944,6 +50991,9 @@
       <c r="C1564" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="D1564" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="E1564" s="12"/>
       <c r="F1564" s="12"/>
       <c r="G1564" s="12"/>
@@ -51838,6 +51888,9 @@
       <c r="C1593" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="D1593" s="11" t="s">
+        <v>1437</v>
+      </c>
       <c r="H1593" s="4" t="s">
         <v>1431</v>
       </c>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.2 Padam Input Template.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4902" uniqueCount="1438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4904" uniqueCount="1438">
   <si>
     <t>Passage</t>
   </si>
@@ -2376,9 +2376,6 @@
     <t>iqtaqm</t>
   </si>
   <si>
-    <t>dhUqr.qShAqhauq</t>
-  </si>
-  <si>
     <t>dhUqr.qShAqhAqviti# dhUH - sAqhauq</t>
   </si>
   <si>
@@ -4203,9 +4200,6 @@
     <t>P[Sh]</t>
   </si>
   <si>
-    <t>P[r]+S[r]</t>
-  </si>
-  <si>
     <t>S(s)</t>
   </si>
   <si>
@@ -4342,6 +4336,12 @@
   </si>
   <si>
     <t>PS-6-14</t>
+  </si>
+  <si>
+    <t>dhUqrq.ShAqhauq</t>
+  </si>
+  <si>
+    <t>P[r]+S[r]+N[r]</t>
   </si>
 </sst>
 </file>
@@ -4944,7 +4944,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1594" sqref="D1594"/>
+      <selection pane="bottomLeft" activeCell="V1323" sqref="V1323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5818,7 +5818,9 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -8192,7 +8194,7 @@
       <c r="F90" s="12"/>
       <c r="G90" s="12"/>
       <c r="H90" s="12" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="I90" s="47" t="s">
         <v>28</v>
@@ -8235,7 +8237,7 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="12" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="I91" s="47" t="s">
         <v>28</v>
@@ -8275,7 +8277,7 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="12" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="I92" s="47" t="s">
         <v>28</v>
@@ -8309,7 +8311,7 @@
       <c r="F93" s="12"/>
       <c r="G93" s="12"/>
       <c r="H93" s="12" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="I93" s="47" t="s">
         <v>28</v>
@@ -8620,7 +8622,7 @@
       <c r="F104" s="12"/>
       <c r="G104" s="12"/>
       <c r="H104" s="12" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I104" s="47" t="s">
         <v>28</v>
@@ -8653,7 +8655,7 @@
       <c r="F105" s="12"/>
       <c r="G105" s="12"/>
       <c r="H105" s="12" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I105" s="47" t="s">
         <v>28</v>
@@ -8682,7 +8684,7 @@
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
       <c r="H106" s="12" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I106" s="47" t="s">
         <v>28</v>
@@ -8711,7 +8713,7 @@
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
       <c r="H107" s="12" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I107" s="47" t="s">
         <v>28</v>
@@ -8740,7 +8742,7 @@
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
       <c r="H108" s="12" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I108" s="47" t="s">
         <v>28</v>
@@ -8769,7 +8771,7 @@
       <c r="F109" s="12"/>
       <c r="G109" s="12"/>
       <c r="H109" s="12" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I109" s="47" t="s">
         <v>28</v>
@@ -9913,7 +9915,7 @@
       <c r="F150" s="12"/>
       <c r="G150" s="12"/>
       <c r="H150" s="12" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I150" s="47" t="s">
         <v>29</v>
@@ -9942,7 +9944,7 @@
       <c r="F151" s="12"/>
       <c r="G151" s="12"/>
       <c r="H151" s="12" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I151" s="47" t="s">
         <v>29</v>
@@ -9977,7 +9979,7 @@
       <c r="F152" s="12"/>
       <c r="G152" s="12"/>
       <c r="H152" s="12" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I152" s="47" t="s">
         <v>29</v>
@@ -10010,7 +10012,7 @@
       <c r="F153" s="12"/>
       <c r="G153" s="12"/>
       <c r="H153" s="12" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I153" s="47" t="s">
         <v>29</v>
@@ -10039,7 +10041,7 @@
       <c r="F154" s="12"/>
       <c r="G154" s="12"/>
       <c r="H154" s="12" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I154" s="47" t="s">
         <v>29</v>
@@ -10072,7 +10074,7 @@
       <c r="F155" s="12"/>
       <c r="G155" s="12"/>
       <c r="H155" s="12" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I155" s="47" t="s">
         <v>29</v>
@@ -10101,7 +10103,7 @@
       <c r="F156" s="12"/>
       <c r="G156" s="12"/>
       <c r="H156" s="12" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I156" s="47" t="s">
         <v>29</v>
@@ -10132,7 +10134,7 @@
       <c r="F157" s="12"/>
       <c r="G157" s="12"/>
       <c r="H157" s="12" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I157" s="47" t="s">
         <v>29</v>
@@ -10161,7 +10163,7 @@
       <c r="F158" s="12"/>
       <c r="G158" s="12"/>
       <c r="H158" s="12" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I158" s="47" t="s">
         <v>29</v>
@@ -10194,7 +10196,7 @@
       <c r="F159" s="12"/>
       <c r="G159" s="12"/>
       <c r="H159" s="12" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I159" s="47" t="s">
         <v>29</v>
@@ -10223,7 +10225,7 @@
       <c r="F160" s="12"/>
       <c r="G160" s="12"/>
       <c r="H160" s="12" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I160" s="47" t="s">
         <v>30</v>
@@ -10252,7 +10254,7 @@
       <c r="F161" s="12"/>
       <c r="G161" s="12"/>
       <c r="H161" s="12" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I161" s="47" t="s">
         <v>30</v>
@@ -10283,7 +10285,7 @@
       <c r="F162" s="12"/>
       <c r="G162" s="12"/>
       <c r="H162" s="12" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I162" s="47" t="s">
         <v>30</v>
@@ -10312,7 +10314,7 @@
       <c r="F163" s="12"/>
       <c r="G163" s="12"/>
       <c r="H163" s="12" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I163" s="47" t="s">
         <v>30</v>
@@ -10341,7 +10343,7 @@
       <c r="F164" s="12"/>
       <c r="G164" s="12"/>
       <c r="H164" s="12" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I164" s="47" t="s">
         <v>30</v>
@@ -10374,7 +10376,7 @@
       <c r="F165" s="12"/>
       <c r="G165" s="12"/>
       <c r="H165" s="12" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I165" s="47" t="s">
         <v>30</v>
@@ -10849,7 +10851,7 @@
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
       <c r="H182" s="12" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="I182" s="47" t="s">
         <v>30</v>
@@ -10878,7 +10880,7 @@
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
       <c r="H183" s="12" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="I183" s="47" t="s">
         <v>30</v>
@@ -10907,7 +10909,7 @@
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
       <c r="H184" s="12" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="I184" s="47" t="s">
         <v>30</v>
@@ -10936,7 +10938,7 @@
       <c r="F185" s="12"/>
       <c r="G185" s="12"/>
       <c r="H185" s="12" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="I185" s="47" t="s">
         <v>30</v>
@@ -10965,7 +10967,7 @@
       <c r="F186" s="12"/>
       <c r="G186" s="12"/>
       <c r="H186" s="12" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="I186" s="47" t="s">
         <v>30</v>
@@ -10998,7 +11000,7 @@
       <c r="F187" s="12"/>
       <c r="G187" s="12"/>
       <c r="H187" s="12" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="I187" s="47" t="s">
         <v>30</v>
@@ -11027,7 +11029,7 @@
       <c r="F188" s="12"/>
       <c r="G188" s="12"/>
       <c r="H188" s="12" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="I188" s="47" t="s">
         <v>30</v>
@@ -11056,7 +11058,7 @@
       <c r="F189" s="12"/>
       <c r="G189" s="12"/>
       <c r="H189" s="12" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="I189" s="47" t="s">
         <v>30</v>
@@ -11961,7 +11963,7 @@
       <c r="F221" s="12"/>
       <c r="G221" s="12"/>
       <c r="H221" s="74" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="I221" s="47" t="s">
         <v>31</v>
@@ -11990,7 +11992,7 @@
       <c r="F222" s="12"/>
       <c r="G222" s="12"/>
       <c r="H222" s="74" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="I222" s="47" t="s">
         <v>31</v>
@@ -12019,7 +12021,7 @@
       <c r="F223" s="12"/>
       <c r="G223" s="12"/>
       <c r="H223" s="74" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="I223" s="47" t="s">
         <v>31</v>
@@ -12048,7 +12050,7 @@
       <c r="F224" s="12"/>
       <c r="G224" s="12"/>
       <c r="H224" s="74" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="I224" s="47" t="s">
         <v>31</v>
@@ -12077,7 +12079,7 @@
       <c r="F225" s="12"/>
       <c r="G225" s="12"/>
       <c r="H225" s="74" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="I225" s="47" t="s">
         <v>31</v>
@@ -12108,7 +12110,7 @@
       <c r="F226" s="12"/>
       <c r="G226" s="12"/>
       <c r="H226" s="74" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="I226" s="47" t="s">
         <v>31</v>
@@ -12142,7 +12144,7 @@
       <c r="F227" s="12"/>
       <c r="G227" s="12"/>
       <c r="H227" s="74" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="I227" s="47" t="s">
         <v>31</v>
@@ -12734,6 +12736,9 @@
       <c r="W247" s="4"/>
     </row>
     <row r="248" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D248" s="11" t="s">
+        <v>188</v>
+      </c>
       <c r="E248" s="12"/>
       <c r="F248" s="12"/>
       <c r="G248" s="12"/>
@@ -12814,7 +12819,7 @@
         <v>11</v>
       </c>
       <c r="N250" s="25" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="O250" s="13"/>
       <c r="P250" s="21" t="s">
@@ -13662,7 +13667,7 @@
         <v>41</v>
       </c>
       <c r="N280" s="25" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="O280" s="13"/>
       <c r="P280" s="21" t="s">
@@ -13979,7 +13984,7 @@
         <v>52</v>
       </c>
       <c r="N291" s="26" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="O291" s="13"/>
       <c r="P291" s="21" t="s">
@@ -14395,7 +14400,7 @@
       <c r="F306" s="12"/>
       <c r="G306" s="12"/>
       <c r="H306" s="74" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="I306" s="47" t="s">
         <v>33</v>
@@ -14424,7 +14429,7 @@
       <c r="F307" s="12"/>
       <c r="G307" s="12"/>
       <c r="H307" s="74" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="I307" s="47" t="s">
         <v>33</v>
@@ -14453,7 +14458,7 @@
       <c r="F308" s="12"/>
       <c r="G308" s="12"/>
       <c r="H308" s="74" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="I308" s="47" t="s">
         <v>33</v>
@@ -14482,7 +14487,7 @@
       <c r="F309" s="12"/>
       <c r="G309" s="12"/>
       <c r="H309" s="74" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="I309" s="47" t="s">
         <v>33</v>
@@ -14513,7 +14518,7 @@
       <c r="F310" s="12"/>
       <c r="G310" s="12"/>
       <c r="H310" s="74" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="I310" s="47" t="s">
         <v>33</v>
@@ -14542,7 +14547,7 @@
       <c r="F311" s="12"/>
       <c r="G311" s="12"/>
       <c r="H311" s="74" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="I311" s="47" t="s">
         <v>33</v>
@@ -14652,7 +14657,7 @@
       <c r="F315" s="12"/>
       <c r="G315" s="12"/>
       <c r="H315" s="74" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="I315" s="47" t="s">
         <v>33</v>
@@ -14683,7 +14688,7 @@
       <c r="F316" s="12"/>
       <c r="G316" s="12"/>
       <c r="H316" s="74" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="I316" s="47" t="s">
         <v>33</v>
@@ -14712,7 +14717,7 @@
       <c r="F317" s="12"/>
       <c r="G317" s="12"/>
       <c r="H317" s="74" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="I317" s="47" t="s">
         <v>33</v>
@@ -14741,7 +14746,7 @@
       <c r="F318" s="12"/>
       <c r="G318" s="12"/>
       <c r="H318" s="74" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="I318" s="47" t="s">
         <v>33</v>
@@ -14770,7 +14775,7 @@
       <c r="F319" s="12"/>
       <c r="G319" s="12"/>
       <c r="H319" s="74" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="I319" s="47" t="s">
         <v>33</v>
@@ -15829,7 +15834,7 @@
       <c r="F358" s="12"/>
       <c r="G358" s="12"/>
       <c r="H358" s="74" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="I358" s="47" t="s">
         <v>34</v>
@@ -15858,7 +15863,7 @@
       <c r="F359" s="12"/>
       <c r="G359" s="12"/>
       <c r="H359" s="74" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="I359" s="47" t="s">
         <v>34</v>
@@ -15889,7 +15894,7 @@
       <c r="F360" s="12"/>
       <c r="G360" s="12"/>
       <c r="H360" s="74" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="I360" s="47" t="s">
         <v>34</v>
@@ -15922,7 +15927,7 @@
       <c r="F361" s="12"/>
       <c r="G361" s="12"/>
       <c r="H361" s="74" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="I361" s="47" t="s">
         <v>34</v>
@@ -15951,7 +15956,7 @@
       <c r="F362" s="12"/>
       <c r="G362" s="12"/>
       <c r="H362" s="74" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="I362" s="47" t="s">
         <v>34</v>
@@ -16096,7 +16101,7 @@
       <c r="F367" s="12"/>
       <c r="G367" s="12"/>
       <c r="H367" s="74" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="I367" s="47" t="s">
         <v>34</v>
@@ -16125,7 +16130,7 @@
       <c r="F368" s="12"/>
       <c r="G368" s="12"/>
       <c r="H368" s="74" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="I368" s="47" t="s">
         <v>34</v>
@@ -16154,7 +16159,7 @@
       <c r="F369" s="12"/>
       <c r="G369" s="12"/>
       <c r="H369" s="74" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="I369" s="47" t="s">
         <v>34</v>
@@ -16183,7 +16188,7 @@
       <c r="F370" s="12"/>
       <c r="G370" s="12"/>
       <c r="H370" s="74" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="I370" s="47" t="s">
         <v>34</v>
@@ -16214,7 +16219,7 @@
       <c r="F371" s="12"/>
       <c r="G371" s="12"/>
       <c r="H371" s="74" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="I371" s="47" t="s">
         <v>34</v>
@@ -16243,7 +16248,7 @@
       <c r="F372" s="12"/>
       <c r="G372" s="12"/>
       <c r="H372" s="74" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="I372" s="47" t="s">
         <v>34</v>
@@ -16549,7 +16554,7 @@
       <c r="F383" s="12"/>
       <c r="G383" s="12"/>
       <c r="H383" s="74" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="I383" s="47" t="s">
         <v>34</v>
@@ -16582,7 +16587,7 @@
       <c r="F384" s="12"/>
       <c r="G384" s="12"/>
       <c r="H384" s="74" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="I384" s="47" t="s">
         <v>34</v>
@@ -16614,7 +16619,7 @@
       <c r="F385" s="12"/>
       <c r="G385" s="12"/>
       <c r="H385" s="74" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="I385" s="47" t="s">
         <v>34</v>
@@ -16646,7 +16651,7 @@
       <c r="F386" s="12"/>
       <c r="G386" s="12"/>
       <c r="H386" s="74" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="I386" s="47" t="s">
         <v>34</v>
@@ -16675,7 +16680,7 @@
       <c r="F387" s="12"/>
       <c r="G387" s="12"/>
       <c r="H387" s="74" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="I387" s="47" t="s">
         <v>34</v>
@@ -16704,7 +16709,7 @@
       <c r="F388" s="12"/>
       <c r="G388" s="12"/>
       <c r="H388" s="74" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="I388" s="47" t="s">
         <v>34</v>
@@ -16735,7 +16740,7 @@
       <c r="F389" s="12"/>
       <c r="G389" s="12"/>
       <c r="H389" s="74" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="I389" s="47" t="s">
         <v>34</v>
@@ -16764,7 +16769,7 @@
       <c r="F390" s="12"/>
       <c r="G390" s="12"/>
       <c r="H390" s="74" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="I390" s="47" t="s">
         <v>34</v>
@@ -16793,7 +16798,7 @@
       <c r="F391" s="12"/>
       <c r="G391" s="12"/>
       <c r="H391" s="74" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="I391" s="47" t="s">
         <v>34</v>
@@ -16824,7 +16829,7 @@
       <c r="F392" s="12"/>
       <c r="G392" s="12"/>
       <c r="H392" s="74" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="I392" s="47" t="s">
         <v>34</v>
@@ -16969,7 +16974,7 @@
       <c r="F397" s="12"/>
       <c r="G397" s="12"/>
       <c r="H397" s="74" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="I397" s="47" t="s">
         <v>34</v>
@@ -17000,7 +17005,7 @@
       <c r="F398" s="12"/>
       <c r="G398" s="12"/>
       <c r="H398" s="74" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="I398" s="47" t="s">
         <v>34</v>
@@ -17029,7 +17034,7 @@
       <c r="F399" s="12"/>
       <c r="G399" s="12"/>
       <c r="H399" s="74" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="I399" s="47" t="s">
         <v>34</v>
@@ -17058,7 +17063,7 @@
       <c r="F400" s="12"/>
       <c r="G400" s="12"/>
       <c r="H400" s="74" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="I400" s="47" t="s">
         <v>34</v>
@@ -17474,7 +17479,7 @@
         <v>175</v>
       </c>
       <c r="N414" s="25" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="O414" s="13"/>
       <c r="P414" s="21" t="s">
@@ -18431,7 +18436,7 @@
       <c r="F449" s="12"/>
       <c r="G449" s="12"/>
       <c r="H449" s="74" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="I449" s="47" t="s">
         <v>35</v>
@@ -18460,7 +18465,7 @@
       <c r="F450" s="12"/>
       <c r="G450" s="12"/>
       <c r="H450" s="74" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="I450" s="47" t="s">
         <v>35</v>
@@ -18491,7 +18496,7 @@
       <c r="F451" s="12"/>
       <c r="G451" s="12"/>
       <c r="H451" s="74" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="I451" s="47" t="s">
         <v>35</v>
@@ -18520,7 +18525,7 @@
       <c r="F452" s="12"/>
       <c r="G452" s="12"/>
       <c r="H452" s="74" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="I452" s="47" t="s">
         <v>35</v>
@@ -18981,7 +18986,7 @@
       <c r="F469" s="12"/>
       <c r="G469" s="12"/>
       <c r="H469" s="74" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="I469" s="47" t="s">
         <v>36</v>
@@ -19010,7 +19015,7 @@
       <c r="F470" s="12"/>
       <c r="G470" s="12"/>
       <c r="H470" s="74" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="I470" s="47" t="s">
         <v>36</v>
@@ -19039,7 +19044,7 @@
       <c r="F471" s="12"/>
       <c r="G471" s="12"/>
       <c r="H471" s="74" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="I471" s="47" t="s">
         <v>36</v>
@@ -19068,7 +19073,7 @@
       <c r="F472" s="12"/>
       <c r="G472" s="12"/>
       <c r="H472" s="74" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="I472" s="47" t="s">
         <v>36</v>
@@ -19101,7 +19106,7 @@
       <c r="F473" s="12"/>
       <c r="G473" s="12"/>
       <c r="H473" s="74" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="I473" s="47" t="s">
         <v>36</v>
@@ -19130,7 +19135,7 @@
       <c r="F474" s="12"/>
       <c r="G474" s="12"/>
       <c r="H474" s="74" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="I474" s="47" t="s">
         <v>36</v>
@@ -19918,7 +19923,7 @@
       <c r="F502" s="12"/>
       <c r="G502" s="12"/>
       <c r="H502" s="74" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="I502" s="47" t="s">
         <v>36</v>
@@ -19947,7 +19952,7 @@
       <c r="F503" s="12"/>
       <c r="G503" s="12"/>
       <c r="H503" s="74" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="I503" s="47" t="s">
         <v>36</v>
@@ -19976,7 +19981,7 @@
       <c r="F504" s="12"/>
       <c r="G504" s="12"/>
       <c r="H504" s="74" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="I504" s="47" t="s">
         <v>36</v>
@@ -20005,7 +20010,7 @@
       <c r="F505" s="12"/>
       <c r="G505" s="12"/>
       <c r="H505" s="74" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="I505" s="47" t="s">
         <v>36</v>
@@ -20034,7 +20039,7 @@
       <c r="F506" s="12"/>
       <c r="G506" s="12"/>
       <c r="H506" s="74" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="I506" s="47" t="s">
         <v>36</v>
@@ -20288,7 +20293,7 @@
       <c r="F515" s="12"/>
       <c r="G515" s="12"/>
       <c r="H515" s="74" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="I515" s="47" t="s">
         <v>36</v>
@@ -20323,7 +20328,7 @@
       <c r="F516" s="12"/>
       <c r="G516" s="12"/>
       <c r="H516" s="74" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="I516" s="47" t="s">
         <v>36</v>
@@ -20354,7 +20359,7 @@
       <c r="F517" s="12"/>
       <c r="G517" s="12"/>
       <c r="H517" s="74" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="I517" s="47" t="s">
         <v>36</v>
@@ -20383,7 +20388,7 @@
       <c r="F518" s="12"/>
       <c r="G518" s="12"/>
       <c r="H518" s="74" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="I518" s="47" t="s">
         <v>36</v>
@@ -20412,7 +20417,7 @@
       <c r="F519" s="12"/>
       <c r="G519" s="12"/>
       <c r="H519" s="74" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="I519" s="47" t="s">
         <v>36</v>
@@ -20430,7 +20435,7 @@
         <v>105</v>
       </c>
       <c r="N519" s="25" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="O519" s="13"/>
       <c r="P519" s="21" t="s">
@@ -22058,7 +22063,7 @@
       <c r="F578" s="12"/>
       <c r="G578" s="12"/>
       <c r="H578" s="74" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="I578" s="47" t="s">
         <v>38</v>
@@ -22089,7 +22094,7 @@
       <c r="F579" s="12"/>
       <c r="G579" s="12"/>
       <c r="H579" s="74" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="I579" s="47" t="s">
         <v>38</v>
@@ -22118,7 +22123,7 @@
       <c r="F580" s="12"/>
       <c r="G580" s="12"/>
       <c r="H580" s="74" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="I580" s="47" t="s">
         <v>38</v>
@@ -22147,7 +22152,7 @@
       <c r="F581" s="12"/>
       <c r="G581" s="12"/>
       <c r="H581" s="74" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="I581" s="47" t="s">
         <v>38</v>
@@ -22176,7 +22181,7 @@
       <c r="F582" s="12"/>
       <c r="G582" s="12"/>
       <c r="H582" s="74" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="I582" s="47" t="s">
         <v>38</v>
@@ -22642,7 +22647,7 @@
         <v>79</v>
       </c>
       <c r="N598" s="25" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="O598" s="13"/>
       <c r="P598" s="21" t="s">
@@ -22658,7 +22663,7 @@
       <c r="F599" s="12"/>
       <c r="G599" s="12"/>
       <c r="H599" s="74" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I599" s="47" t="s">
         <v>39</v>
@@ -22688,7 +22693,7 @@
       <c r="F600" s="12"/>
       <c r="G600" s="12"/>
       <c r="H600" s="74" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I600" s="47" t="s">
         <v>39</v>
@@ -22721,7 +22726,7 @@
       <c r="F601" s="12"/>
       <c r="G601" s="12"/>
       <c r="H601" s="74" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I601" s="47" t="s">
         <v>39</v>
@@ -22946,7 +22951,7 @@
       <c r="F609" s="12"/>
       <c r="G609" s="12"/>
       <c r="H609" s="74" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="I609" s="47" t="s">
         <v>39</v>
@@ -22975,7 +22980,7 @@
       <c r="F610" s="12"/>
       <c r="G610" s="12"/>
       <c r="H610" s="74" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="I610" s="47" t="s">
         <v>39</v>
@@ -23009,7 +23014,7 @@
       <c r="F611" s="12"/>
       <c r="G611" s="12"/>
       <c r="H611" s="74" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="I611" s="4" t="s">
         <v>39</v>
@@ -23045,7 +23050,7 @@
       <c r="F612" s="12"/>
       <c r="G612" s="12"/>
       <c r="H612" s="74" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="I612" s="47" t="s">
         <v>39</v>
@@ -23074,7 +23079,7 @@
       <c r="F613" s="12"/>
       <c r="G613" s="12"/>
       <c r="H613" s="74" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="I613" s="47" t="s">
         <v>39</v>
@@ -23832,7 +23837,7 @@
         <v>41</v>
       </c>
       <c r="N639" s="25" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="O639" s="13"/>
       <c r="P639" s="21" t="s">
@@ -24022,7 +24027,7 @@
       <c r="F646" s="12"/>
       <c r="G646" s="12"/>
       <c r="H646" s="74" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="I646" s="47" t="s">
         <v>39</v>
@@ -24055,7 +24060,7 @@
       <c r="F647" s="12"/>
       <c r="G647" s="12"/>
       <c r="H647" s="74" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="I647" s="47" t="s">
         <v>39</v>
@@ -24088,7 +24093,7 @@
       <c r="F648" s="12"/>
       <c r="G648" s="12"/>
       <c r="H648" s="74" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="I648" s="47" t="s">
         <v>39</v>
@@ -24126,7 +24131,7 @@
       <c r="F649" s="12"/>
       <c r="G649" s="12"/>
       <c r="H649" s="74" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="I649" s="47" t="s">
         <v>39</v>
@@ -24160,7 +24165,7 @@
       <c r="F650" s="12"/>
       <c r="G650" s="12"/>
       <c r="H650" s="74" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="I650" s="47" t="s">
         <v>39</v>
@@ -24338,7 +24343,7 @@
         <v>57</v>
       </c>
       <c r="N655" s="25" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="O655" s="13"/>
       <c r="P655" s="21" t="s">
@@ -25703,7 +25708,7 @@
       <c r="F704" s="12"/>
       <c r="G704" s="12"/>
       <c r="H704" s="74" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="I704" s="47" t="s">
         <v>40</v>
@@ -25732,7 +25737,7 @@
       <c r="F705" s="12"/>
       <c r="G705" s="12"/>
       <c r="H705" s="74" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="I705" s="47" t="s">
         <v>40</v>
@@ -25761,7 +25766,7 @@
       <c r="F706" s="12"/>
       <c r="G706" s="12"/>
       <c r="H706" s="74" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="I706" s="47" t="s">
         <v>40</v>
@@ -25792,7 +25797,7 @@
       <c r="F707" s="12"/>
       <c r="G707" s="12"/>
       <c r="H707" s="74" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="I707" s="47" t="s">
         <v>40</v>
@@ -25821,7 +25826,7 @@
       <c r="F708" s="12"/>
       <c r="G708" s="12"/>
       <c r="H708" s="74" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="I708" s="47" t="s">
         <v>40</v>
@@ -26211,7 +26216,7 @@
       <c r="F722" s="12"/>
       <c r="G722" s="12"/>
       <c r="H722" s="74" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="I722" s="47" t="s">
         <v>40</v>
@@ -26244,7 +26249,7 @@
       <c r="F723" s="12"/>
       <c r="G723" s="12"/>
       <c r="H723" s="74" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="I723" s="47" t="s">
         <v>40</v>
@@ -26269,7 +26274,7 @@
         <v>97</v>
       </c>
       <c r="T723" s="21" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="V723" s="23"/>
       <c r="W723" s="4"/>
@@ -26279,7 +26284,7 @@
       <c r="F724" s="12"/>
       <c r="G724" s="12"/>
       <c r="H724" s="74" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="I724" s="47" t="s">
         <v>40</v>
@@ -26308,7 +26313,7 @@
       <c r="F725" s="12"/>
       <c r="G725" s="12"/>
       <c r="H725" s="74" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="I725" s="47" t="s">
         <v>40</v>
@@ -26384,7 +26389,7 @@
         <v>72</v>
       </c>
       <c r="N727" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="O727" s="13"/>
       <c r="P727" s="21" t="s">
@@ -26401,7 +26406,7 @@
       <c r="F728" s="12"/>
       <c r="G728" s="12"/>
       <c r="H728" s="74" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="I728" s="47" t="s">
         <v>41</v>
@@ -26432,7 +26437,7 @@
       <c r="F729" s="12"/>
       <c r="G729" s="12"/>
       <c r="H729" s="74" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="I729" s="47" t="s">
         <v>41</v>
@@ -26461,7 +26466,7 @@
       <c r="F730" s="12"/>
       <c r="G730" s="12"/>
       <c r="H730" s="74" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="I730" s="47" t="s">
         <v>41</v>
@@ -26494,7 +26499,7 @@
       <c r="F731" s="12"/>
       <c r="G731" s="12"/>
       <c r="H731" s="74" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="I731" s="47" t="s">
         <v>41</v>
@@ -26525,7 +26530,7 @@
       <c r="F732" s="12"/>
       <c r="G732" s="12"/>
       <c r="H732" s="74" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="I732" s="47" t="s">
         <v>41</v>
@@ -27417,7 +27422,7 @@
       <c r="F763" s="12"/>
       <c r="G763" s="12"/>
       <c r="H763" s="74" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="I763" s="47" t="s">
         <v>41</v>
@@ -27450,7 +27455,7 @@
       <c r="F764" s="12"/>
       <c r="G764" s="12"/>
       <c r="H764" s="74" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="I764" s="47" t="s">
         <v>41</v>
@@ -27479,7 +27484,7 @@
       <c r="F765" s="12"/>
       <c r="G765" s="12"/>
       <c r="H765" s="74" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="I765" s="47" t="s">
         <v>41</v>
@@ -27508,7 +27513,7 @@
       <c r="F766" s="12"/>
       <c r="G766" s="12"/>
       <c r="H766" s="74" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="I766" s="47" t="s">
         <v>41</v>
@@ -27537,7 +27542,7 @@
       <c r="F767" s="12"/>
       <c r="G767" s="12"/>
       <c r="H767" s="74" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="I767" s="47" t="s">
         <v>41</v>
@@ -28293,7 +28298,7 @@
         <v>66</v>
       </c>
       <c r="N793" s="25" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="O793" s="13"/>
       <c r="P793" s="21" t="s">
@@ -28395,7 +28400,7 @@
       <c r="F797" s="12"/>
       <c r="G797" s="12"/>
       <c r="H797" s="74" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="I797" s="47" t="s">
         <v>42</v>
@@ -28424,7 +28429,7 @@
       <c r="F798" s="12"/>
       <c r="G798" s="12"/>
       <c r="H798" s="74" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="I798" s="47" t="s">
         <v>42</v>
@@ -28455,7 +28460,7 @@
       <c r="F799" s="12"/>
       <c r="G799" s="12"/>
       <c r="H799" s="74" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="I799" s="47" t="s">
         <v>42</v>
@@ -28484,7 +28489,7 @@
       <c r="F800" s="12"/>
       <c r="G800" s="12"/>
       <c r="H800" s="74" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="I800" s="47" t="s">
         <v>42</v>
@@ -28502,13 +28507,13 @@
         <v>73</v>
       </c>
       <c r="N800" s="26" t="s">
-        <v>782</v>
+        <v>1436</v>
       </c>
       <c r="O800" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V800" s="23" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="W800" s="4"/>
     </row>
@@ -28517,7 +28522,7 @@
       <c r="F801" s="12"/>
       <c r="G801" s="12"/>
       <c r="H801" s="74" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="I801" s="47" t="s">
         <v>42</v>
@@ -28535,7 +28540,7 @@
         <v>74</v>
       </c>
       <c r="N801" s="26" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="O801" s="13" t="s">
         <v>24</v>
@@ -28566,13 +28571,13 @@
         <v>75</v>
       </c>
       <c r="N802" s="26" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="O802" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V802" s="23" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="W802" s="4"/>
     </row>
@@ -28597,13 +28602,13 @@
         <v>76</v>
       </c>
       <c r="N803" s="26" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="O803" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V803" s="23" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="W803" s="4"/>
     </row>
@@ -28655,7 +28660,7 @@
         <v>78</v>
       </c>
       <c r="N805" s="25" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="O805" s="13"/>
       <c r="V805" s="23"/>
@@ -28736,13 +28741,13 @@
         <v>81</v>
       </c>
       <c r="N808" s="26" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="O808" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V808" s="23" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="W808" s="4"/>
     </row>
@@ -28794,13 +28799,13 @@
         <v>83</v>
       </c>
       <c r="N810" s="26" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="O810" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V810" s="23" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="W810" s="4"/>
     </row>
@@ -28852,7 +28857,7 @@
         <v>85</v>
       </c>
       <c r="N812" s="25" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="O812" s="13"/>
       <c r="P812" s="21" t="s">
@@ -28913,7 +28918,7 @@
         <v>2</v>
       </c>
       <c r="N814" s="25" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O814" s="13"/>
       <c r="V814" s="23"/>
@@ -28940,7 +28945,7 @@
         <v>3</v>
       </c>
       <c r="N815" s="25" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O815" s="13"/>
       <c r="S815" s="28" t="s">
@@ -28973,7 +28978,7 @@
         <v>4</v>
       </c>
       <c r="N816" s="25" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="O816" s="13"/>
       <c r="S816" s="4"/>
@@ -29002,7 +29007,7 @@
         <v>5</v>
       </c>
       <c r="N817" s="25" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="O817" s="13"/>
       <c r="V817" s="23"/>
@@ -29058,7 +29063,7 @@
         <v>7</v>
       </c>
       <c r="N819" s="25" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="O819" s="13"/>
       <c r="V819" s="23"/>
@@ -29139,13 +29144,13 @@
         <v>10</v>
       </c>
       <c r="N822" s="26" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="O822" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V822" s="23" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="W822" s="4"/>
     </row>
@@ -29170,7 +29175,7 @@
         <v>11</v>
       </c>
       <c r="N823" s="25" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="O823" s="13"/>
       <c r="V823" s="23"/>
@@ -29251,13 +29256,13 @@
         <v>14</v>
       </c>
       <c r="N826" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="O826" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V826" s="23" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="W826" s="4"/>
     </row>
@@ -29285,7 +29290,7 @@
         <v>15</v>
       </c>
       <c r="N827" s="25" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="O827" s="13"/>
       <c r="V827" s="23"/>
@@ -29366,7 +29371,7 @@
         <v>18</v>
       </c>
       <c r="N830" s="25" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="O830" s="13"/>
       <c r="V830" s="23"/>
@@ -29393,13 +29398,13 @@
         <v>19</v>
       </c>
       <c r="N831" s="26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O831" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V831" s="23" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="W831" s="4"/>
     </row>
@@ -29451,7 +29456,7 @@
         <v>21</v>
       </c>
       <c r="N833" s="25" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="O833" s="13"/>
       <c r="V833" s="25"/>
@@ -29478,13 +29483,13 @@
         <v>22</v>
       </c>
       <c r="N834" s="26" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="O834" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V834" s="23" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="W834" s="4"/>
     </row>
@@ -29538,7 +29543,7 @@
         <v>24</v>
       </c>
       <c r="N836" s="25" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="O836" s="13"/>
       <c r="S836" s="4"/>
@@ -29566,7 +29571,7 @@
         <v>25</v>
       </c>
       <c r="N837" s="25" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="O837" s="13"/>
       <c r="V837" s="23"/>
@@ -29593,7 +29598,7 @@
         <v>26</v>
       </c>
       <c r="N838" s="25" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="O838" s="13"/>
       <c r="V838" s="23"/>
@@ -29620,7 +29625,7 @@
         <v>27</v>
       </c>
       <c r="N839" s="26" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="O839" s="13"/>
       <c r="V839" s="23"/>
@@ -29647,7 +29652,7 @@
         <v>28</v>
       </c>
       <c r="N840" s="25" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="O840" s="13"/>
       <c r="V840" s="23"/>
@@ -29728,7 +29733,7 @@
         <v>31</v>
       </c>
       <c r="N843" s="25" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O843" s="13"/>
       <c r="V843" s="23"/>
@@ -29755,7 +29760,7 @@
         <v>32</v>
       </c>
       <c r="N844" s="25" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="O844" s="13"/>
       <c r="V844" s="23"/>
@@ -29782,7 +29787,7 @@
         <v>33</v>
       </c>
       <c r="N845" s="25" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="O845" s="13"/>
       <c r="V845" s="23"/>
@@ -29836,13 +29841,13 @@
         <v>35</v>
       </c>
       <c r="N847" s="26" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="O847" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V847" s="23" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="W847" s="4"/>
     </row>
@@ -29923,7 +29928,7 @@
         <v>38</v>
       </c>
       <c r="N850" s="25" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O850" s="13"/>
       <c r="V850" s="23"/>
@@ -29950,7 +29955,7 @@
         <v>39</v>
       </c>
       <c r="N851" s="25" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="O851" s="13"/>
       <c r="V851" s="23"/>
@@ -29977,13 +29982,13 @@
         <v>40</v>
       </c>
       <c r="N852" s="26" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="O852" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V852" s="23" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="W852" s="4"/>
     </row>
@@ -30008,7 +30013,7 @@
         <v>41</v>
       </c>
       <c r="N853" s="25" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="O853" s="13"/>
       <c r="V853" s="23"/>
@@ -30035,7 +30040,7 @@
         <v>42</v>
       </c>
       <c r="N854" s="25" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="O854" s="13"/>
       <c r="V854" s="23"/>
@@ -30062,7 +30067,7 @@
         <v>43</v>
       </c>
       <c r="N855" s="25" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="O855" s="13"/>
       <c r="V855" s="23"/>
@@ -30089,7 +30094,7 @@
         <v>44</v>
       </c>
       <c r="N856" s="25" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="O856" s="13" t="s">
         <v>23</v>
@@ -30118,7 +30123,7 @@
         <v>45</v>
       </c>
       <c r="N857" s="25" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="O857" s="13"/>
       <c r="V857" s="23"/>
@@ -30145,7 +30150,7 @@
         <v>46</v>
       </c>
       <c r="N858" s="25" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="O858" s="13"/>
       <c r="V858" s="23"/>
@@ -30172,7 +30177,7 @@
         <v>47</v>
       </c>
       <c r="N859" s="25" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="O859" s="13"/>
       <c r="V859" s="23"/>
@@ -30199,7 +30204,7 @@
         <v>48</v>
       </c>
       <c r="N860" s="25" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="O860" s="13"/>
       <c r="V860" s="23"/>
@@ -30253,7 +30258,7 @@
         <v>50</v>
       </c>
       <c r="N862" s="26" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="O862" s="13"/>
       <c r="V862" s="23"/>
@@ -30307,7 +30312,7 @@
         <v>52</v>
       </c>
       <c r="N864" s="25" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="O864" s="13"/>
       <c r="V864" s="23"/>
@@ -30334,7 +30339,7 @@
         <v>53</v>
       </c>
       <c r="N865" s="25" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="O865" s="13"/>
       <c r="V865" s="23"/>
@@ -30361,7 +30366,7 @@
         <v>54</v>
       </c>
       <c r="N866" s="25" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O866" s="13"/>
       <c r="V866" s="23"/>
@@ -30415,7 +30420,7 @@
         <v>56</v>
       </c>
       <c r="N868" s="25" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="O868" s="13"/>
       <c r="S868" s="28"/>
@@ -30443,7 +30448,7 @@
         <v>57</v>
       </c>
       <c r="N869" s="25" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="O869" s="13"/>
       <c r="V869" s="23"/>
@@ -30470,13 +30475,13 @@
         <v>58</v>
       </c>
       <c r="N870" s="26" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="O870" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V870" s="23" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="W870" s="4"/>
     </row>
@@ -30501,13 +30506,13 @@
         <v>59</v>
       </c>
       <c r="N871" s="26" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="O871" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V871" s="23" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="W871" s="4"/>
     </row>
@@ -30532,7 +30537,7 @@
         <v>60</v>
       </c>
       <c r="N872" s="25" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="O872" s="13"/>
       <c r="V872" s="23"/>
@@ -30559,7 +30564,7 @@
         <v>61</v>
       </c>
       <c r="N873" s="25" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="O873" s="13"/>
       <c r="S873" s="28" t="s">
@@ -30592,7 +30597,7 @@
         <v>62</v>
       </c>
       <c r="N874" s="25" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="O874" s="13"/>
       <c r="S874" s="4"/>
@@ -30621,7 +30626,7 @@
         <v>63</v>
       </c>
       <c r="N875" s="25" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="O875" s="13"/>
       <c r="V875" s="23"/>
@@ -30648,7 +30653,7 @@
         <v>64</v>
       </c>
       <c r="N876" s="25" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="O876" s="13"/>
       <c r="V876" s="23"/>
@@ -30702,7 +30707,7 @@
         <v>66</v>
       </c>
       <c r="N878" s="25" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="O878" s="13"/>
       <c r="V878" s="23"/>
@@ -30783,13 +30788,13 @@
         <v>69</v>
       </c>
       <c r="N881" s="26" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="O881" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V881" s="23" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="W881" s="4"/>
     </row>
@@ -30841,13 +30846,13 @@
         <v>71</v>
       </c>
       <c r="N883" s="26" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="O883" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V883" s="23" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="W883" s="4"/>
     </row>
@@ -30899,7 +30904,7 @@
         <v>73</v>
       </c>
       <c r="N885" s="25" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="O885" s="13"/>
       <c r="P885" s="21" t="s">
@@ -30958,7 +30963,7 @@
         <v>2</v>
       </c>
       <c r="N887" s="25" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O887" s="13"/>
       <c r="V887" s="23"/>
@@ -31093,7 +31098,7 @@
         <v>7</v>
       </c>
       <c r="N892" s="25" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O892" s="13"/>
       <c r="V892" s="23"/>
@@ -31201,7 +31206,7 @@
         <v>11</v>
       </c>
       <c r="N896" s="25" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="O896" s="13"/>
       <c r="V896" s="23"/>
@@ -31228,7 +31233,7 @@
         <v>12</v>
       </c>
       <c r="N897" s="25" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O897" s="13"/>
       <c r="V897" s="23"/>
@@ -31390,13 +31395,13 @@
         <v>18</v>
       </c>
       <c r="N903" s="26" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O903" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V903" s="23" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="W903" s="4"/>
     </row>
@@ -31475,7 +31480,7 @@
         <v>21</v>
       </c>
       <c r="N906" s="25" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="O906" s="13"/>
       <c r="V906" s="23"/>
@@ -31529,13 +31534,13 @@
         <v>23</v>
       </c>
       <c r="N908" s="26" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="O908" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V908" s="23" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="W908" s="4"/>
     </row>
@@ -31614,7 +31619,7 @@
         <v>26</v>
       </c>
       <c r="N911" s="25" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O911" s="13"/>
       <c r="V911" s="23"/>
@@ -31668,7 +31673,7 @@
         <v>28</v>
       </c>
       <c r="N913" s="25" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="O913" s="13"/>
       <c r="V913" s="23"/>
@@ -31722,7 +31727,7 @@
         <v>30</v>
       </c>
       <c r="N915" s="25" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="O915" s="13"/>
       <c r="V915" s="23"/>
@@ -31749,7 +31754,7 @@
         <v>31</v>
       </c>
       <c r="N916" s="25" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="O916" s="13"/>
       <c r="V916" s="23"/>
@@ -31830,13 +31835,13 @@
         <v>34</v>
       </c>
       <c r="N919" s="26" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="O919" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V919" s="23" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="W919" s="4"/>
     </row>
@@ -31915,13 +31920,13 @@
         <v>37</v>
       </c>
       <c r="N922" s="26" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="O922" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V922" s="23" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="W922" s="4"/>
     </row>
@@ -31946,13 +31951,13 @@
         <v>38</v>
       </c>
       <c r="N923" s="26" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="O923" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V923" s="23" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="W923" s="4"/>
     </row>
@@ -31977,13 +31982,13 @@
         <v>39</v>
       </c>
       <c r="N924" s="26" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="O924" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V924" s="23" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="W924" s="4"/>
     </row>
@@ -32008,13 +32013,13 @@
         <v>40</v>
       </c>
       <c r="N925" s="26" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="O925" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V925" s="23" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="W925" s="4"/>
     </row>
@@ -32068,7 +32073,7 @@
         <v>42</v>
       </c>
       <c r="N927" s="26" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="O927" s="13"/>
       <c r="S927" s="10" t="s">
@@ -32131,7 +32136,7 @@
         <v>44</v>
       </c>
       <c r="N929" s="25" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="O929" s="13"/>
       <c r="S929" s="61"/>
@@ -32404,11 +32409,11 @@
         <v>54</v>
       </c>
       <c r="N939" s="26" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="O939" s="13"/>
       <c r="V939" s="23" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="W939" s="4"/>
     </row>
@@ -32433,7 +32438,7 @@
         <v>55</v>
       </c>
       <c r="N940" s="25" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="O940" s="13"/>
       <c r="V940" s="23"/>
@@ -32487,13 +32492,13 @@
         <v>57</v>
       </c>
       <c r="N942" s="26" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="O942" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V942" s="23" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="W942" s="4"/>
     </row>
@@ -32518,7 +32523,7 @@
         <v>58</v>
       </c>
       <c r="N943" s="25" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="O943" s="13"/>
       <c r="V943" s="23"/>
@@ -32545,7 +32550,7 @@
         <v>59</v>
       </c>
       <c r="N944" s="25" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="O944" s="13"/>
       <c r="V944" s="23"/>
@@ -32599,7 +32604,7 @@
         <v>61</v>
       </c>
       <c r="N946" s="25" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="O946" s="13"/>
       <c r="V946" s="23"/>
@@ -32626,7 +32631,7 @@
         <v>62</v>
       </c>
       <c r="N947" s="25" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="O947" s="13"/>
       <c r="V947" s="23"/>
@@ -32653,7 +32658,7 @@
         <v>63</v>
       </c>
       <c r="N948" s="25" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="O948" s="13"/>
       <c r="V948" s="23"/>
@@ -32680,13 +32685,13 @@
         <v>64</v>
       </c>
       <c r="N949" s="26" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="O949" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V949" s="23" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="W949" s="4"/>
     </row>
@@ -32738,7 +32743,7 @@
         <v>66</v>
       </c>
       <c r="N951" s="25" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="O951" s="13"/>
       <c r="V951" s="25"/>
@@ -32765,13 +32770,13 @@
         <v>67</v>
       </c>
       <c r="N952" s="26" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="O952" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V952" s="25" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="W952" s="4"/>
     </row>
@@ -32823,7 +32828,7 @@
         <v>69</v>
       </c>
       <c r="N954" s="25" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="O954" s="13"/>
       <c r="V954" s="25"/>
@@ -32850,13 +32855,13 @@
         <v>70</v>
       </c>
       <c r="N955" s="26" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="O955" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V955" s="23" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="W955" s="4"/>
     </row>
@@ -32908,7 +32913,7 @@
         <v>72</v>
       </c>
       <c r="N957" s="25" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="O957" s="13"/>
       <c r="V957" s="23"/>
@@ -32935,7 +32940,7 @@
         <v>73</v>
       </c>
       <c r="N958" s="25" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="O958" s="13"/>
       <c r="V958" s="23"/>
@@ -32962,7 +32967,7 @@
         <v>74</v>
       </c>
       <c r="N959" s="25" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="O959" s="13"/>
       <c r="V959" s="23"/>
@@ -32989,7 +32994,7 @@
         <v>75</v>
       </c>
       <c r="N960" s="25" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="O960" s="13"/>
       <c r="V960" s="23"/>
@@ -33016,7 +33021,7 @@
         <v>76</v>
       </c>
       <c r="N961" s="25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="O961" s="13"/>
       <c r="S961" s="4"/>
@@ -33044,7 +33049,7 @@
         <v>77</v>
       </c>
       <c r="N962" s="25" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="O962" s="13"/>
       <c r="V962" s="23"/>
@@ -33098,7 +33103,7 @@
         <v>79</v>
       </c>
       <c r="N964" s="25" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="O964" s="13"/>
       <c r="V964" s="23"/>
@@ -33125,13 +33130,13 @@
         <v>80</v>
       </c>
       <c r="N965" s="26" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="O965" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V965" s="23" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="W965" s="4"/>
     </row>
@@ -33183,13 +33188,13 @@
         <v>82</v>
       </c>
       <c r="N967" s="26" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="O967" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V967" s="23" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="W967" s="4"/>
     </row>
@@ -33214,7 +33219,7 @@
         <v>83</v>
       </c>
       <c r="N968" s="25" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="O968" s="13"/>
       <c r="V968" s="23"/>
@@ -33241,7 +33246,7 @@
         <v>84</v>
       </c>
       <c r="N969" s="25" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="O969" s="13"/>
       <c r="V969" s="23"/>
@@ -33268,13 +33273,13 @@
         <v>85</v>
       </c>
       <c r="N970" s="26" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="O970" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V970" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="W970" s="4"/>
     </row>
@@ -33299,13 +33304,13 @@
         <v>86</v>
       </c>
       <c r="N971" s="26" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="O971" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V971" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="W971" s="4"/>
     </row>
@@ -33386,7 +33391,7 @@
         <v>89</v>
       </c>
       <c r="N974" s="25" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="O974" s="13"/>
       <c r="V974" s="23"/>
@@ -33413,13 +33418,13 @@
         <v>90</v>
       </c>
       <c r="N975" s="26" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="O975" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V975" s="23" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="W975" s="4"/>
     </row>
@@ -33500,7 +33505,7 @@
         <v>93</v>
       </c>
       <c r="N978" s="25" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="O978" s="13"/>
       <c r="V978" s="23"/>
@@ -33527,13 +33532,13 @@
         <v>94</v>
       </c>
       <c r="N979" s="26" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="O979" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V979" s="23" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="W979" s="4"/>
     </row>
@@ -33558,7 +33563,7 @@
         <v>95</v>
       </c>
       <c r="N980" s="25" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="O980" s="13"/>
       <c r="V980" s="23"/>
@@ -33585,7 +33590,7 @@
         <v>96</v>
       </c>
       <c r="N981" s="25" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="O981" s="13"/>
       <c r="V981" s="23"/>
@@ -33612,7 +33617,7 @@
         <v>97</v>
       </c>
       <c r="N982" s="25" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="O982" s="13" t="s">
         <v>23</v>
@@ -33668,7 +33673,7 @@
         <v>99</v>
       </c>
       <c r="N984" s="25" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="O984" s="13"/>
       <c r="V984" s="23"/>
@@ -33695,7 +33700,7 @@
         <v>100</v>
       </c>
       <c r="N985" s="26" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="O985" s="13"/>
       <c r="V985" s="23"/>
@@ -33722,7 +33727,7 @@
         <v>101</v>
       </c>
       <c r="N986" s="25" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="O986" s="13"/>
       <c r="P986" s="21" t="s">
@@ -33759,7 +33764,7 @@
         <v>1</v>
       </c>
       <c r="N987" s="26" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="O987" s="2" t="s">
         <v>22</v>
@@ -33769,7 +33774,7 @@
         <v>76</v>
       </c>
       <c r="V987" s="23" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="W987" s="4"/>
     </row>
@@ -33914,7 +33919,7 @@
         <v>6</v>
       </c>
       <c r="N992" s="25" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O992" s="13"/>
       <c r="V992" s="23"/>
@@ -33925,7 +33930,7 @@
       <c r="F993" s="12"/>
       <c r="G993" s="12"/>
       <c r="H993" s="74" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="I993" s="24" t="s">
         <v>46</v>
@@ -33954,7 +33959,7 @@
       <c r="F994" s="12"/>
       <c r="G994" s="12"/>
       <c r="H994" s="74" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="I994" s="24" t="s">
         <v>46</v>
@@ -33972,13 +33977,13 @@
         <v>8</v>
       </c>
       <c r="N994" s="26" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="O994" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V994" s="23" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="W994" s="4"/>
     </row>
@@ -33987,7 +33992,7 @@
       <c r="F995" s="12"/>
       <c r="G995" s="12"/>
       <c r="H995" s="74" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="I995" s="24" t="s">
         <v>46</v>
@@ -34018,7 +34023,7 @@
       <c r="F996" s="12"/>
       <c r="G996" s="12"/>
       <c r="H996" s="74" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="I996" s="24" t="s">
         <v>46</v>
@@ -34036,7 +34041,7 @@
         <v>10</v>
       </c>
       <c r="N996" s="25" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="O996" s="13"/>
       <c r="V996" s="23"/>
@@ -34047,7 +34052,7 @@
       <c r="F997" s="12"/>
       <c r="G997" s="12"/>
       <c r="H997" s="74" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="I997" s="24" t="s">
         <v>46</v>
@@ -34065,7 +34070,7 @@
         <v>11</v>
       </c>
       <c r="N997" s="25" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="O997" s="13"/>
       <c r="V997" s="23"/>
@@ -34092,7 +34097,7 @@
         <v>12</v>
       </c>
       <c r="N998" s="25" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O998" s="13"/>
       <c r="V998" s="23"/>
@@ -34202,7 +34207,7 @@
         <v>16</v>
       </c>
       <c r="N1002" s="25" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="O1002" s="13"/>
       <c r="V1002" s="23"/>
@@ -34258,7 +34263,7 @@
         <v>18</v>
       </c>
       <c r="N1004" s="25" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="O1004" s="13"/>
       <c r="V1004" s="23"/>
@@ -34285,7 +34290,7 @@
         <v>19</v>
       </c>
       <c r="N1005" s="25" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="O1005" s="13"/>
       <c r="S1005" s="4"/>
@@ -34344,7 +34349,7 @@
         <v>21</v>
       </c>
       <c r="N1007" s="25" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="O1007" s="13"/>
       <c r="V1007" s="23"/>
@@ -34481,7 +34486,7 @@
         <v>26</v>
       </c>
       <c r="N1012" s="25" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="O1012" s="13"/>
       <c r="V1012" s="23"/>
@@ -34542,14 +34547,14 @@
         <v>28</v>
       </c>
       <c r="N1014" s="25" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="O1014" s="13"/>
       <c r="S1014" s="28" t="s">
         <v>96</v>
       </c>
       <c r="T1014" s="21" t="s">
-        <v>1391</v>
+        <v>1437</v>
       </c>
       <c r="V1014" s="23"/>
       <c r="W1014" s="4"/>
@@ -34633,7 +34638,7 @@
         <v>31</v>
       </c>
       <c r="N1017" s="25" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="O1017" s="13"/>
       <c r="V1017" s="23"/>
@@ -34660,7 +34665,7 @@
         <v>32</v>
       </c>
       <c r="N1018" s="25" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="O1018" s="13"/>
       <c r="V1018" s="23"/>
@@ -34687,7 +34692,7 @@
         <v>33</v>
       </c>
       <c r="N1019" s="25" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="O1019" s="13"/>
       <c r="V1019" s="23"/>
@@ -34714,13 +34719,13 @@
         <v>34</v>
       </c>
       <c r="N1020" s="26" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="O1020" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1020" s="23" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="W1020" s="4"/>
     </row>
@@ -34772,7 +34777,7 @@
         <v>36</v>
       </c>
       <c r="N1022" s="25" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="O1022" s="13"/>
       <c r="V1022" s="23"/>
@@ -34826,7 +34831,7 @@
         <v>38</v>
       </c>
       <c r="N1024" s="25" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="O1024" s="13"/>
       <c r="V1024" s="23"/>
@@ -34880,13 +34885,13 @@
         <v>40</v>
       </c>
       <c r="N1026" s="26" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="O1026" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1026" s="23" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="W1026" s="4"/>
     </row>
@@ -34938,7 +34943,7 @@
         <v>42</v>
       </c>
       <c r="N1028" s="25" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="O1028" s="13"/>
       <c r="V1028" s="23"/>
@@ -34965,13 +34970,13 @@
         <v>43</v>
       </c>
       <c r="N1029" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="O1029" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1029" s="23" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="W1029" s="4"/>
     </row>
@@ -35023,7 +35028,7 @@
         <v>45</v>
       </c>
       <c r="N1031" s="25" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O1031" s="13"/>
       <c r="V1031" s="23"/>
@@ -35104,7 +35109,7 @@
         <v>48</v>
       </c>
       <c r="N1034" s="25" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="O1034" s="13"/>
       <c r="V1034" s="23"/>
@@ -35158,7 +35163,7 @@
         <v>50</v>
       </c>
       <c r="N1036" s="25" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="O1036" s="13"/>
       <c r="V1036" s="23"/>
@@ -35185,7 +35190,7 @@
         <v>51</v>
       </c>
       <c r="N1037" s="25" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O1037" s="13"/>
       <c r="V1037" s="23"/>
@@ -35374,7 +35379,7 @@
         <v>58</v>
       </c>
       <c r="N1044" s="25" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="O1044" s="13"/>
       <c r="V1044" s="23"/>
@@ -35401,13 +35406,13 @@
         <v>59</v>
       </c>
       <c r="N1045" s="26" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="O1045" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1045" s="23" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="W1045" s="4"/>
     </row>
@@ -35432,7 +35437,7 @@
         <v>60</v>
       </c>
       <c r="N1046" s="25" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O1046" s="13"/>
       <c r="V1046" s="23"/>
@@ -35486,7 +35491,7 @@
         <v>62</v>
       </c>
       <c r="N1048" s="25" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O1048" s="13"/>
       <c r="V1048" s="23"/>
@@ -35574,7 +35579,7 @@
         <v>65</v>
       </c>
       <c r="N1051" s="25" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="O1051" s="13"/>
       <c r="V1051" s="23"/>
@@ -35774,7 +35779,7 @@
       <c r="F1059" s="12"/>
       <c r="G1059" s="12"/>
       <c r="H1059" s="74" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="I1059" s="47" t="s">
         <v>47</v>
@@ -35792,7 +35797,7 @@
         <v>73</v>
       </c>
       <c r="N1059" s="25" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O1059" s="13"/>
       <c r="V1059" s="23"/>
@@ -35803,7 +35808,7 @@
       <c r="F1060" s="12"/>
       <c r="G1060" s="12"/>
       <c r="H1060" s="74" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="I1060" s="47" t="s">
         <v>47</v>
@@ -35835,7 +35840,7 @@
       <c r="F1061" s="12"/>
       <c r="G1061" s="12"/>
       <c r="H1061" s="74" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="I1061" s="47" t="s">
         <v>47</v>
@@ -35867,7 +35872,7 @@
       <c r="F1062" s="12"/>
       <c r="G1062" s="12"/>
       <c r="H1062" s="74" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="I1062" s="47" t="s">
         <v>47</v>
@@ -35885,13 +35890,13 @@
         <v>76</v>
       </c>
       <c r="N1062" s="26" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="O1062" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1062" s="23" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="W1062" s="4"/>
     </row>
@@ -35900,7 +35905,7 @@
       <c r="F1063" s="12"/>
       <c r="G1063" s="12"/>
       <c r="H1063" s="74" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="I1063" s="47" t="s">
         <v>47</v>
@@ -35918,13 +35923,13 @@
         <v>77</v>
       </c>
       <c r="N1063" s="26" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="O1063" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1063" s="23" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="W1063" s="4"/>
     </row>
@@ -35936,7 +35941,7 @@
       <c r="F1064" s="12"/>
       <c r="G1064" s="12"/>
       <c r="H1064" s="74" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="I1064" s="47" t="s">
         <v>47</v>
@@ -35954,7 +35959,7 @@
         <v>78</v>
       </c>
       <c r="N1064" s="26" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="O1064" s="13" t="s">
         <v>22</v>
@@ -35962,7 +35967,7 @@
       <c r="S1064" s="4"/>
       <c r="T1064" s="21"/>
       <c r="V1064" s="23" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="W1064" s="4"/>
     </row>
@@ -36014,7 +36019,7 @@
         <v>80</v>
       </c>
       <c r="N1066" s="25" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="O1066" s="13"/>
       <c r="V1066" s="23"/>
@@ -36041,13 +36046,13 @@
         <v>81</v>
       </c>
       <c r="N1067" s="26" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="O1067" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1067" s="23" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="W1067" s="4"/>
     </row>
@@ -36072,7 +36077,7 @@
         <v>82</v>
       </c>
       <c r="N1068" s="25" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="O1068" s="13"/>
       <c r="V1068" s="23"/>
@@ -36102,7 +36107,7 @@
         <v>83</v>
       </c>
       <c r="N1069" s="25" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="O1069" s="13"/>
       <c r="V1069" s="23"/>
@@ -36129,7 +36134,7 @@
         <v>84</v>
       </c>
       <c r="N1070" s="25" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="O1070" s="13" t="s">
         <v>23</v>
@@ -36161,7 +36166,7 @@
         <v>85</v>
       </c>
       <c r="N1071" s="25" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="O1071" s="13"/>
       <c r="V1071" s="23"/>
@@ -36188,7 +36193,7 @@
         <v>86</v>
       </c>
       <c r="N1072" s="25" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O1072" s="13"/>
       <c r="V1072" s="23"/>
@@ -36218,7 +36223,7 @@
         <v>87</v>
       </c>
       <c r="N1073" s="25" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="O1073" s="13"/>
       <c r="V1073" s="23"/>
@@ -36245,7 +36250,7 @@
         <v>88</v>
       </c>
       <c r="N1074" s="25" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="O1074" s="13" t="s">
         <v>23</v>
@@ -36277,7 +36282,7 @@
         <v>89</v>
       </c>
       <c r="N1075" s="25" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="O1075" s="13"/>
       <c r="V1075" s="23"/>
@@ -36336,13 +36341,13 @@
         <v>1</v>
       </c>
       <c r="N1077" s="26" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="O1077" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1077" s="23" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="W1077" s="4"/>
     </row>
@@ -36421,13 +36426,13 @@
         <v>4</v>
       </c>
       <c r="N1080" s="26" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="O1080" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1080" s="23" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="W1080" s="4"/>
     </row>
@@ -36506,7 +36511,7 @@
         <v>7</v>
       </c>
       <c r="N1083" s="25" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="O1083" s="13"/>
       <c r="V1083" s="23"/>
@@ -36560,7 +36565,7 @@
         <v>9</v>
       </c>
       <c r="N1085" s="25" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="O1085" s="13"/>
       <c r="V1085" s="23"/>
@@ -36587,7 +36592,7 @@
         <v>10</v>
       </c>
       <c r="N1086" s="25" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="O1086" s="13"/>
       <c r="V1086" s="23"/>
@@ -36641,7 +36646,7 @@
         <v>12</v>
       </c>
       <c r="N1088" s="25" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="O1088" s="13"/>
       <c r="V1088" s="23"/>
@@ -36668,7 +36673,7 @@
         <v>13</v>
       </c>
       <c r="N1089" s="25" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="O1089" s="13"/>
       <c r="V1089" s="23"/>
@@ -36695,7 +36700,7 @@
         <v>14</v>
       </c>
       <c r="N1090" s="25" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="O1090" s="13"/>
       <c r="V1090" s="23"/>
@@ -36722,7 +36727,7 @@
         <v>15</v>
       </c>
       <c r="N1091" s="25" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="O1091" s="13"/>
       <c r="V1091" s="23"/>
@@ -36751,7 +36756,7 @@
         <v>16</v>
       </c>
       <c r="N1092" s="25" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="O1092" s="13"/>
       <c r="V1092" s="23"/>
@@ -36813,7 +36818,7 @@
         <v>18</v>
       </c>
       <c r="N1094" s="25" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="O1094" s="2"/>
       <c r="U1094" s="60" t="s">
@@ -36874,7 +36879,7 @@
         <v>20</v>
       </c>
       <c r="N1096" s="25" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="O1096" s="13"/>
       <c r="V1096" s="23"/>
@@ -36903,7 +36908,7 @@
         <v>21</v>
       </c>
       <c r="N1097" s="25" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="O1097" s="13"/>
       <c r="V1097" s="23"/>
@@ -36932,7 +36937,7 @@
         <v>22</v>
       </c>
       <c r="N1098" s="25" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="O1098" s="13"/>
       <c r="V1098" s="23"/>
@@ -36990,7 +36995,7 @@
         <v>24</v>
       </c>
       <c r="N1100" s="25" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="O1100" s="13"/>
       <c r="V1100" s="23"/>
@@ -37137,13 +37142,13 @@
         <v>29</v>
       </c>
       <c r="N1105" s="26" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="O1105" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1105" s="23" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="W1105" s="4"/>
     </row>
@@ -37170,7 +37175,7 @@
         <v>30</v>
       </c>
       <c r="N1106" s="25" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="O1106" s="13"/>
       <c r="V1106" s="23"/>
@@ -37199,7 +37204,7 @@
         <v>31</v>
       </c>
       <c r="N1107" s="25" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="O1107" s="13"/>
       <c r="V1107" s="23"/>
@@ -37228,7 +37233,7 @@
         <v>32</v>
       </c>
       <c r="N1108" s="25" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="O1108" s="13"/>
       <c r="V1108" s="23"/>
@@ -37317,7 +37322,7 @@
         <v>35</v>
       </c>
       <c r="N1111" s="25" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O1111" s="13"/>
       <c r="V1111" s="23"/>
@@ -37378,7 +37383,7 @@
         <v>37</v>
       </c>
       <c r="N1113" s="25" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="O1113" s="13"/>
       <c r="T1113" s="34"/>
@@ -37438,7 +37443,7 @@
         <v>39</v>
       </c>
       <c r="N1115" s="25" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="O1115" s="13"/>
       <c r="V1115" s="23"/>
@@ -37465,7 +37470,7 @@
         <v>40</v>
       </c>
       <c r="N1116" s="25" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="O1116" s="13"/>
       <c r="V1116" s="23"/>
@@ -37492,7 +37497,7 @@
         <v>41</v>
       </c>
       <c r="N1117" s="25" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="O1117" s="13"/>
       <c r="V1117" s="23"/>
@@ -37519,7 +37524,7 @@
         <v>42</v>
       </c>
       <c r="N1118" s="25" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="O1118" s="13"/>
       <c r="V1118" s="23"/>
@@ -37573,7 +37578,7 @@
         <v>44</v>
       </c>
       <c r="N1120" s="25" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="O1120" s="13"/>
       <c r="V1120" s="23"/>
@@ -37710,13 +37715,13 @@
         <v>49</v>
       </c>
       <c r="N1125" s="26" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="O1125" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1125" s="23" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="W1125" s="4"/>
     </row>
@@ -37741,7 +37746,7 @@
         <v>50</v>
       </c>
       <c r="N1126" s="25" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="O1126" s="13"/>
       <c r="V1126" s="23"/>
@@ -37768,7 +37773,7 @@
         <v>51</v>
       </c>
       <c r="N1127" s="25" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="O1127" s="13"/>
       <c r="V1127" s="23"/>
@@ -37795,7 +37800,7 @@
         <v>52</v>
       </c>
       <c r="N1128" s="25" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="O1128" s="13"/>
       <c r="V1128" s="23"/>
@@ -37878,7 +37883,7 @@
         <v>55</v>
       </c>
       <c r="N1131" s="25" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O1131" s="13"/>
       <c r="V1131" s="23"/>
@@ -37889,7 +37894,7 @@
       <c r="F1132" s="12"/>
       <c r="G1132" s="12"/>
       <c r="H1132" s="74" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="I1132" s="47" t="s">
         <v>49</v>
@@ -37907,7 +37912,7 @@
         <v>56</v>
       </c>
       <c r="N1132" s="25" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O1132" s="13"/>
       <c r="V1132" s="23"/>
@@ -37918,7 +37923,7 @@
       <c r="F1133" s="12"/>
       <c r="G1133" s="12"/>
       <c r="H1133" s="74" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="I1133" s="47" t="s">
         <v>49</v>
@@ -37947,7 +37952,7 @@
       <c r="F1134" s="12"/>
       <c r="G1134" s="12"/>
       <c r="H1134" s="74" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="I1134" s="47" t="s">
         <v>49</v>
@@ -37965,7 +37970,7 @@
         <v>58</v>
       </c>
       <c r="N1134" s="25" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="O1134" s="13"/>
       <c r="V1134" s="23"/>
@@ -37979,7 +37984,7 @@
       <c r="F1135" s="12"/>
       <c r="G1135" s="12"/>
       <c r="H1135" s="74" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="I1135" s="47" t="s">
         <v>49</v>
@@ -38009,7 +38014,7 @@
       <c r="F1136" s="12"/>
       <c r="G1136" s="12"/>
       <c r="H1136" s="74" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="I1136" s="47" t="s">
         <v>49</v>
@@ -38038,7 +38043,7 @@
       <c r="F1137" s="12"/>
       <c r="G1137" s="12"/>
       <c r="H1137" s="74" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="I1137" s="47" t="s">
         <v>49</v>
@@ -38056,7 +38061,7 @@
         <v>61</v>
       </c>
       <c r="N1137" s="25" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="O1137" s="13"/>
       <c r="V1137" s="23"/>
@@ -38067,7 +38072,7 @@
       <c r="F1138" s="12"/>
       <c r="G1138" s="12"/>
       <c r="H1138" s="74" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="I1138" s="47" t="s">
         <v>49</v>
@@ -38139,13 +38144,13 @@
         <v>64</v>
       </c>
       <c r="N1140" s="26" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="O1140" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1140" s="23" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="W1140" s="4"/>
     </row>
@@ -38170,7 +38175,7 @@
         <v>65</v>
       </c>
       <c r="N1141" s="25" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="O1141" s="13"/>
       <c r="V1141" s="23"/>
@@ -38197,7 +38202,7 @@
         <v>66</v>
       </c>
       <c r="N1142" s="25" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="O1142" s="13"/>
       <c r="V1142" s="23"/>
@@ -38251,7 +38256,7 @@
         <v>68</v>
       </c>
       <c r="N1144" s="25" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="O1144" s="13"/>
       <c r="V1144" s="23"/>
@@ -38278,7 +38283,7 @@
         <v>69</v>
       </c>
       <c r="N1145" s="25" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O1145" s="13"/>
       <c r="V1145" s="23"/>
@@ -38305,7 +38310,7 @@
         <v>70</v>
       </c>
       <c r="N1146" s="25" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="O1146" s="13"/>
       <c r="V1146" s="23"/>
@@ -38332,7 +38337,7 @@
         <v>71</v>
       </c>
       <c r="N1147" s="25" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="O1147" s="13"/>
       <c r="V1147" s="23"/>
@@ -38359,13 +38364,13 @@
         <v>72</v>
       </c>
       <c r="N1148" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="O1148" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1148" s="23" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="W1148" s="4"/>
     </row>
@@ -38448,7 +38453,7 @@
         <v>75</v>
       </c>
       <c r="N1151" s="25" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="O1151" s="13"/>
       <c r="V1151" s="23"/>
@@ -38502,13 +38507,13 @@
         <v>77</v>
       </c>
       <c r="N1153" s="26" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="O1153" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1153" s="23" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="W1153" s="4"/>
     </row>
@@ -38560,13 +38565,13 @@
         <v>79</v>
       </c>
       <c r="N1155" s="26" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="O1155" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1155" s="23" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="W1155" s="4"/>
     </row>
@@ -38591,7 +38596,7 @@
         <v>80</v>
       </c>
       <c r="N1156" s="25" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="O1156" s="13"/>
       <c r="V1156" s="23"/>
@@ -38645,13 +38650,13 @@
         <v>82</v>
       </c>
       <c r="N1158" s="26" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="O1158" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1158" s="23" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="W1158" s="4"/>
     </row>
@@ -38703,7 +38708,7 @@
         <v>84</v>
       </c>
       <c r="N1160" s="25" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="O1160" s="13"/>
       <c r="V1160" s="23"/>
@@ -38730,7 +38735,7 @@
         <v>85</v>
       </c>
       <c r="N1161" s="25" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="O1161" s="13"/>
       <c r="V1161" s="23"/>
@@ -38784,13 +38789,13 @@
         <v>87</v>
       </c>
       <c r="N1163" s="26" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="O1163" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1163" s="23" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="W1163" s="4"/>
     </row>
@@ -38842,7 +38847,7 @@
         <v>89</v>
       </c>
       <c r="N1165" s="25" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="O1165" s="13"/>
       <c r="V1165" s="23"/>
@@ -38869,13 +38874,13 @@
         <v>90</v>
       </c>
       <c r="N1166" s="26" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="O1166" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1166" s="23" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W1166" s="4"/>
     </row>
@@ -38927,7 +38932,7 @@
         <v>92</v>
       </c>
       <c r="N1168" s="25" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O1168" s="13"/>
       <c r="V1168" s="23"/>
@@ -38981,13 +38986,13 @@
         <v>94</v>
       </c>
       <c r="N1170" s="26" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="O1170" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1170" s="23" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="W1170" s="4"/>
     </row>
@@ -39039,7 +39044,7 @@
         <v>96</v>
       </c>
       <c r="N1172" s="25" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O1172" s="13"/>
       <c r="V1172" s="23"/>
@@ -39093,13 +39098,13 @@
         <v>98</v>
       </c>
       <c r="N1174" s="26" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O1174" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1174" s="23" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="W1174" s="4"/>
     </row>
@@ -39151,7 +39156,7 @@
         <v>100</v>
       </c>
       <c r="N1176" s="25" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O1176" s="13"/>
       <c r="V1176" s="23"/>
@@ -39209,7 +39214,7 @@
         <v>102</v>
       </c>
       <c r="N1178" s="26" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="O1178" s="13" t="s">
         <v>22</v>
@@ -39217,7 +39222,7 @@
       <c r="S1178" s="28"/>
       <c r="T1178" s="69"/>
       <c r="V1178" s="23" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="W1178" s="4"/>
     </row>
@@ -39271,7 +39276,7 @@
         <v>104</v>
       </c>
       <c r="N1180" s="25" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O1180" s="13"/>
       <c r="V1180" s="23"/>
@@ -39325,13 +39330,13 @@
         <v>106</v>
       </c>
       <c r="N1182" s="26" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O1182" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1182" s="23" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="W1182" s="4"/>
     </row>
@@ -39367,7 +39372,7 @@
       <c r="F1184" s="12"/>
       <c r="G1184" s="12"/>
       <c r="H1184" s="74" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="I1184" s="47" t="s">
         <v>50</v>
@@ -39385,7 +39390,7 @@
         <v>108</v>
       </c>
       <c r="N1184" s="25" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O1184" s="13"/>
       <c r="V1184" s="23"/>
@@ -39396,7 +39401,7 @@
       <c r="F1185" s="12"/>
       <c r="G1185" s="12"/>
       <c r="H1185" s="74" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="I1185" s="47" t="s">
         <v>50</v>
@@ -39425,7 +39430,7 @@
       <c r="F1186" s="12"/>
       <c r="G1186" s="12"/>
       <c r="H1186" s="74" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="I1186" s="47" t="s">
         <v>50</v>
@@ -39456,7 +39461,7 @@
       <c r="F1187" s="12"/>
       <c r="G1187" s="12"/>
       <c r="H1187" s="74" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="I1187" s="47" t="s">
         <v>50</v>
@@ -39474,7 +39479,7 @@
         <v>111</v>
       </c>
       <c r="N1187" s="25" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="O1187" s="13"/>
       <c r="V1187" s="23"/>
@@ -39488,7 +39493,7 @@
       <c r="F1188" s="12"/>
       <c r="G1188" s="12"/>
       <c r="H1188" s="74" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="I1188" s="47" t="s">
         <v>50</v>
@@ -39506,7 +39511,7 @@
         <v>112</v>
       </c>
       <c r="N1188" s="25" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="O1188" s="13"/>
       <c r="S1188" s="4"/>
@@ -39518,7 +39523,7 @@
       <c r="F1189" s="12"/>
       <c r="G1189" s="12"/>
       <c r="H1189" s="74" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="I1189" s="47" t="s">
         <v>50</v>
@@ -39536,13 +39541,13 @@
         <v>113</v>
       </c>
       <c r="N1189" s="26" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="O1189" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1189" s="23" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="W1189" s="4"/>
     </row>
@@ -39567,7 +39572,7 @@
         <v>114</v>
       </c>
       <c r="N1190" s="25" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="O1190" s="13"/>
       <c r="V1190" s="23"/>
@@ -39623,7 +39628,7 @@
         <v>116</v>
       </c>
       <c r="N1192" s="25" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="O1192" s="13"/>
       <c r="V1192" s="23"/>
@@ -39631,7 +39636,7 @@
     </row>
     <row r="1193" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="C1193" s="4" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="E1193" s="12"/>
       <c r="F1193" s="12"/>
@@ -39668,7 +39673,7 @@
         <v>172</v>
       </c>
       <c r="C1194" s="4" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="E1194" s="12"/>
       <c r="F1194" s="12"/>
@@ -39692,7 +39697,7 @@
         <v>118</v>
       </c>
       <c r="N1194" s="26" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O1194" s="13" t="s">
         <v>22</v>
@@ -39701,10 +39706,10 @@
         <v>96</v>
       </c>
       <c r="T1194" s="21" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="V1194" s="23" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="W1194" s="4"/>
     </row>
@@ -39758,7 +39763,7 @@
         <v>120</v>
       </c>
       <c r="N1196" s="25" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O1196" s="13"/>
       <c r="V1196" s="23"/>
@@ -39785,7 +39790,7 @@
         <v>121</v>
       </c>
       <c r="N1197" s="25" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="O1197" s="13"/>
       <c r="V1197" s="23"/>
@@ -39812,13 +39817,13 @@
         <v>122</v>
       </c>
       <c r="N1198" s="26" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="O1198" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1198" s="23" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="W1198" s="4"/>
     </row>
@@ -39897,7 +39902,7 @@
         <v>125</v>
       </c>
       <c r="N1201" s="25" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="O1201" s="13"/>
       <c r="V1201" s="23"/>
@@ -39924,13 +39929,13 @@
         <v>126</v>
       </c>
       <c r="N1202" s="26" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="O1202" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1202" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="W1202" s="4"/>
     </row>
@@ -39982,7 +39987,7 @@
         <v>128</v>
       </c>
       <c r="N1204" s="25" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="O1204" s="13"/>
       <c r="V1204" s="23"/>
@@ -40009,7 +40014,7 @@
         <v>129</v>
       </c>
       <c r="N1205" s="25" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="O1205" s="13"/>
       <c r="V1205" s="23"/>
@@ -40063,7 +40068,7 @@
         <v>131</v>
       </c>
       <c r="N1207" s="25" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O1207" s="13"/>
       <c r="V1207" s="23"/>
@@ -40144,7 +40149,7 @@
         <v>134</v>
       </c>
       <c r="N1210" s="25" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="O1210" s="13"/>
       <c r="V1210" s="23"/>
@@ -40203,7 +40208,7 @@
         <v>1</v>
       </c>
       <c r="N1212" s="25" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="O1212" s="13"/>
       <c r="V1212" s="23"/>
@@ -40230,7 +40235,7 @@
         <v>2</v>
       </c>
       <c r="N1213" s="25" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="O1213" s="13"/>
       <c r="V1213" s="23"/>
@@ -40257,7 +40262,7 @@
         <v>3</v>
       </c>
       <c r="N1214" s="25" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O1214" s="13"/>
       <c r="V1214" s="23"/>
@@ -40284,7 +40289,7 @@
         <v>4</v>
       </c>
       <c r="N1215" s="25" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="O1215" s="13"/>
       <c r="V1215" s="23"/>
@@ -40311,7 +40316,7 @@
         <v>5</v>
       </c>
       <c r="N1216" s="25" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="O1216" s="13"/>
       <c r="V1216" s="23"/>
@@ -40338,7 +40343,7 @@
         <v>6</v>
       </c>
       <c r="N1217" s="25" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="O1217" s="13"/>
       <c r="V1217" s="23"/>
@@ -40365,7 +40370,7 @@
         <v>7</v>
       </c>
       <c r="N1218" s="25" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O1218" s="13"/>
       <c r="V1218" s="23"/>
@@ -40392,7 +40397,7 @@
         <v>8</v>
       </c>
       <c r="N1219" s="25" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="O1219" s="13"/>
       <c r="V1219" s="23"/>
@@ -40419,7 +40424,7 @@
         <v>9</v>
       </c>
       <c r="N1220" s="25" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="O1220" s="13"/>
       <c r="P1220" s="21" t="s">
@@ -40480,7 +40485,7 @@
         <v>11</v>
       </c>
       <c r="N1222" s="25" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="O1222" s="13"/>
       <c r="V1222" s="23"/>
@@ -40507,7 +40512,7 @@
         <v>12</v>
       </c>
       <c r="N1223" s="25" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O1223" s="13"/>
       <c r="V1223" s="23"/>
@@ -40534,13 +40539,13 @@
         <v>13</v>
       </c>
       <c r="N1224" s="26" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="O1224" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1224" s="23" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="W1224" s="4"/>
     </row>
@@ -40549,7 +40554,7 @@
       <c r="F1225" s="12"/>
       <c r="G1225" s="12"/>
       <c r="H1225" s="74" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="I1225" s="47" t="s">
         <v>51</v>
@@ -40567,7 +40572,7 @@
         <v>14</v>
       </c>
       <c r="N1225" s="25" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="O1225" s="13"/>
       <c r="V1225" s="23"/>
@@ -40578,7 +40583,7 @@
       <c r="F1226" s="12"/>
       <c r="G1226" s="12"/>
       <c r="H1226" s="74" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="I1226" s="47" t="s">
         <v>51</v>
@@ -40607,7 +40612,7 @@
       <c r="F1227" s="12"/>
       <c r="G1227" s="12"/>
       <c r="H1227" s="74" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="I1227" s="47" t="s">
         <v>51</v>
@@ -40625,7 +40630,7 @@
         <v>16</v>
       </c>
       <c r="N1227" s="25" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="O1227" s="13"/>
       <c r="V1227" s="23"/>
@@ -40636,7 +40641,7 @@
       <c r="F1228" s="12"/>
       <c r="G1228" s="12"/>
       <c r="H1228" s="74" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="I1228" s="47" t="s">
         <v>51</v>
@@ -40681,7 +40686,7 @@
         <v>18</v>
       </c>
       <c r="N1229" s="25" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="O1229" s="13"/>
       <c r="S1229" s="2" t="s">
@@ -40714,7 +40719,7 @@
         <v>19</v>
       </c>
       <c r="N1230" s="26" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="O1230" s="13" t="s">
         <v>22</v>
@@ -40723,7 +40728,7 @@
         <v>67</v>
       </c>
       <c r="V1230" s="23" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="W1230" s="4"/>
     </row>
@@ -40748,13 +40753,13 @@
         <v>20</v>
       </c>
       <c r="N1231" s="26" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O1231" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1231" s="23" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="W1231" s="4"/>
     </row>
@@ -40806,7 +40811,7 @@
         <v>22</v>
       </c>
       <c r="N1233" s="25" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="O1233" s="13"/>
       <c r="S1233" s="2" t="s">
@@ -40868,7 +40873,7 @@
         <v>24</v>
       </c>
       <c r="N1235" s="25" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="O1235" s="13"/>
       <c r="V1235" s="23"/>
@@ -40895,13 +40900,13 @@
         <v>25</v>
       </c>
       <c r="N1236" s="26" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="O1236" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1236" s="23" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="W1236" s="4"/>
     </row>
@@ -40926,7 +40931,7 @@
         <v>26</v>
       </c>
       <c r="N1237" s="25" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="O1237" s="13"/>
       <c r="V1237" s="23"/>
@@ -40982,7 +40987,7 @@
         <v>28</v>
       </c>
       <c r="N1239" s="25" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="O1239" s="13"/>
       <c r="V1239" s="23"/>
@@ -41065,7 +41070,7 @@
         <v>31</v>
       </c>
       <c r="N1242" s="25" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="O1242" s="13"/>
       <c r="V1242" s="23"/>
@@ -41092,7 +41097,7 @@
         <v>32</v>
       </c>
       <c r="N1243" s="25" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="O1243" s="13"/>
       <c r="V1243" s="23"/>
@@ -41119,7 +41124,7 @@
         <v>33</v>
       </c>
       <c r="N1244" s="25" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="O1244" s="13"/>
       <c r="V1244" s="23"/>
@@ -41173,7 +41178,7 @@
         <v>35</v>
       </c>
       <c r="N1246" s="25" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="O1246" s="13"/>
       <c r="V1246" s="23"/>
@@ -41200,13 +41205,13 @@
         <v>36</v>
       </c>
       <c r="N1247" s="26" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="O1247" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1247" s="23" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="W1247" s="4"/>
     </row>
@@ -41258,7 +41263,7 @@
         <v>38</v>
       </c>
       <c r="N1249" s="25" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="O1249" s="13"/>
       <c r="V1249" s="23"/>
@@ -41285,7 +41290,7 @@
         <v>39</v>
       </c>
       <c r="N1250" s="25" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="O1250" s="13"/>
       <c r="V1250" s="23"/>
@@ -41312,7 +41317,7 @@
         <v>40</v>
       </c>
       <c r="N1251" s="25" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="O1251" s="13"/>
       <c r="P1251" s="21" t="s">
@@ -41371,7 +41376,7 @@
         <v>42</v>
       </c>
       <c r="N1253" s="25" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="O1253" s="13"/>
       <c r="V1253" s="23"/>
@@ -41427,7 +41432,7 @@
         <v>44</v>
       </c>
       <c r="N1255" s="25" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="O1255" s="13"/>
       <c r="V1255" s="23"/>
@@ -41454,7 +41459,7 @@
         <v>45</v>
       </c>
       <c r="N1256" s="25" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="O1256" s="13"/>
       <c r="V1256" s="23"/>
@@ -41481,7 +41486,7 @@
         <v>46</v>
       </c>
       <c r="N1257" s="25" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="O1257" s="13" t="s">
         <v>23</v>
@@ -41510,7 +41515,7 @@
         <v>47</v>
       </c>
       <c r="N1258" s="25" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O1258" s="13"/>
       <c r="V1258" s="23"/>
@@ -41537,7 +41542,7 @@
         <v>48</v>
       </c>
       <c r="N1259" s="25" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="O1259" s="13"/>
       <c r="P1259" s="21" t="s">
@@ -41569,13 +41574,13 @@
         <v>49</v>
       </c>
       <c r="N1260" s="26" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="O1260" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1260" s="23" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="W1260" s="4"/>
     </row>
@@ -41627,7 +41632,7 @@
         <v>51</v>
       </c>
       <c r="N1262" s="25" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="O1262" s="13"/>
       <c r="V1262" s="23"/>
@@ -41654,13 +41659,13 @@
         <v>52</v>
       </c>
       <c r="N1263" s="26" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="O1263" s="13" t="s">
         <v>21</v>
       </c>
       <c r="V1263" s="25" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="W1263" s="4"/>
     </row>
@@ -41685,13 +41690,13 @@
         <v>53</v>
       </c>
       <c r="N1264" s="26" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="O1264" s="13" t="s">
         <v>21</v>
       </c>
       <c r="V1264" s="25" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="W1264" s="4"/>
     </row>
@@ -41716,7 +41721,7 @@
         <v>54</v>
       </c>
       <c r="N1265" s="25" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="O1265" s="13"/>
       <c r="V1265" s="23"/>
@@ -41743,7 +41748,7 @@
         <v>55</v>
       </c>
       <c r="N1266" s="25" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="O1266" s="13"/>
       <c r="V1266" s="23"/>
@@ -41770,13 +41775,13 @@
         <v>56</v>
       </c>
       <c r="N1267" s="26" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="O1267" s="13" t="s">
         <v>21</v>
       </c>
       <c r="V1267" s="23" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="W1267" s="4"/>
     </row>
@@ -41801,7 +41806,7 @@
         <v>57</v>
       </c>
       <c r="N1268" s="25" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="O1268" s="13"/>
       <c r="V1268" s="23"/>
@@ -41828,7 +41833,7 @@
         <v>58</v>
       </c>
       <c r="N1269" s="26" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="O1269" s="13" t="s">
         <v>24</v>
@@ -41891,7 +41896,7 @@
         <v>60</v>
       </c>
       <c r="N1271" s="25" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="O1271" s="13"/>
       <c r="V1271" s="23"/>
@@ -41918,7 +41923,7 @@
         <v>61</v>
       </c>
       <c r="N1272" s="26" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="O1272" s="13" t="s">
         <v>24</v>
@@ -41951,7 +41956,7 @@
         <v>62</v>
       </c>
       <c r="N1273" s="25" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="O1273" s="13"/>
       <c r="V1273" s="23"/>
@@ -42009,7 +42014,7 @@
         <v>64</v>
       </c>
       <c r="N1275" s="25" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O1275" s="13"/>
       <c r="V1275" s="23"/>
@@ -42036,7 +42041,7 @@
         <v>65</v>
       </c>
       <c r="N1276" s="25" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O1276" s="13"/>
       <c r="V1276" s="23"/>
@@ -42063,7 +42068,7 @@
         <v>66</v>
       </c>
       <c r="N1277" s="25" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="O1277" s="13"/>
       <c r="V1277" s="23"/>
@@ -42090,7 +42095,7 @@
         <v>67</v>
       </c>
       <c r="N1278" s="25" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="O1278" s="13"/>
       <c r="P1278" s="21" t="s">
@@ -42122,7 +42127,7 @@
         <v>68</v>
       </c>
       <c r="N1279" s="26" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="O1279" s="13" t="s">
         <v>24</v>
@@ -42209,7 +42214,7 @@
         <v>71</v>
       </c>
       <c r="N1282" s="25" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="O1282" s="13"/>
       <c r="V1282" s="23"/>
@@ -42236,7 +42241,7 @@
         <v>72</v>
       </c>
       <c r="N1283" s="26" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="O1283" s="13" t="s">
         <v>24</v>
@@ -42267,7 +42272,7 @@
         <v>73</v>
       </c>
       <c r="N1284" s="25" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="O1284" s="13"/>
       <c r="V1284" s="23"/>
@@ -42321,7 +42326,7 @@
         <v>75</v>
       </c>
       <c r="N1286" s="25" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="O1286" s="13"/>
       <c r="V1286" s="23"/>
@@ -42375,7 +42380,7 @@
         <v>77</v>
       </c>
       <c r="N1288" s="25" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="O1288" s="13"/>
       <c r="V1288" s="23"/>
@@ -42402,7 +42407,7 @@
         <v>78</v>
       </c>
       <c r="N1289" s="25" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="O1289" s="13"/>
       <c r="V1289" s="23"/>
@@ -42429,7 +42434,7 @@
         <v>79</v>
       </c>
       <c r="N1290" s="25" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="O1290" s="13"/>
       <c r="S1290" s="29"/>
@@ -42461,7 +42466,7 @@
         <v>80</v>
       </c>
       <c r="N1291" s="25" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="O1291" s="13"/>
       <c r="S1291" s="29"/>
@@ -42516,7 +42521,7 @@
         <v>82</v>
       </c>
       <c r="N1293" s="25" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="O1293" s="13"/>
       <c r="V1293" s="23"/>
@@ -42543,7 +42548,7 @@
         <v>83</v>
       </c>
       <c r="N1294" s="25" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="O1294" s="13"/>
       <c r="V1294" s="23"/>
@@ -42573,7 +42578,7 @@
         <v>84</v>
       </c>
       <c r="N1295" s="25" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="O1295" s="13"/>
       <c r="V1295" s="23"/>
@@ -42600,7 +42605,7 @@
         <v>85</v>
       </c>
       <c r="N1296" s="25" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O1296" s="13"/>
       <c r="V1296" s="23"/>
@@ -42627,7 +42632,7 @@
         <v>86</v>
       </c>
       <c r="N1297" s="25" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="O1297" s="13"/>
       <c r="V1297" s="23"/>
@@ -42681,7 +42686,7 @@
         <v>88</v>
       </c>
       <c r="N1299" s="25" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="O1299" s="13"/>
       <c r="V1299" s="23"/>
@@ -42708,7 +42713,7 @@
         <v>89</v>
       </c>
       <c r="N1300" s="25" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="O1300" s="13"/>
       <c r="V1300" s="23"/>
@@ -42735,7 +42740,7 @@
         <v>90</v>
       </c>
       <c r="N1301" s="25" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="O1301" s="13"/>
       <c r="T1301" s="21"/>
@@ -42763,7 +42768,7 @@
         <v>91</v>
       </c>
       <c r="N1302" s="25" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O1302" s="13"/>
       <c r="V1302" s="23"/>
@@ -42790,7 +42795,7 @@
         <v>92</v>
       </c>
       <c r="N1303" s="25" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="O1303" s="13"/>
       <c r="V1303" s="23"/>
@@ -42847,7 +42852,7 @@
         <v>94</v>
       </c>
       <c r="N1305" s="25" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="O1305" s="13"/>
       <c r="V1305" s="23"/>
@@ -42874,7 +42879,7 @@
         <v>95</v>
       </c>
       <c r="N1306" s="25" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="O1306" s="13"/>
       <c r="V1306" s="23"/>
@@ -42901,13 +42906,13 @@
         <v>96</v>
       </c>
       <c r="N1307" s="26" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="O1307" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1307" s="23" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="W1307" s="4"/>
     </row>
@@ -42932,7 +42937,7 @@
         <v>97</v>
       </c>
       <c r="N1308" s="25" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="O1308" s="13"/>
       <c r="V1308" s="23"/>
@@ -42943,7 +42948,7 @@
       <c r="F1309" s="12"/>
       <c r="G1309" s="12"/>
       <c r="H1309" s="74" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="I1309" s="47" t="s">
         <v>52</v>
@@ -42972,7 +42977,7 @@
       <c r="F1310" s="12"/>
       <c r="G1310" s="12"/>
       <c r="H1310" s="74" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="I1310" s="47" t="s">
         <v>52</v>
@@ -43003,7 +43008,7 @@
       <c r="F1311" s="12"/>
       <c r="G1311" s="12"/>
       <c r="H1311" s="74" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="I1311" s="47" t="s">
         <v>52</v>
@@ -43032,7 +43037,7 @@
       <c r="F1312" s="12"/>
       <c r="G1312" s="12"/>
       <c r="H1312" s="74" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="I1312" s="47" t="s">
         <v>53</v>
@@ -43050,7 +43055,7 @@
         <v>101</v>
       </c>
       <c r="N1312" s="25" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="O1312" s="13"/>
       <c r="V1312" s="23"/>
@@ -43061,7 +43066,7 @@
       <c r="F1313" s="12"/>
       <c r="G1313" s="12"/>
       <c r="H1313" s="74" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="I1313" s="47" t="s">
         <v>53</v>
@@ -43092,7 +43097,7 @@
       <c r="F1314" s="12"/>
       <c r="G1314" s="12"/>
       <c r="H1314" s="74" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="I1314" s="47" t="s">
         <v>53</v>
@@ -43110,7 +43115,7 @@
         <v>103</v>
       </c>
       <c r="N1314" s="25" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O1314" s="13"/>
       <c r="V1314" s="23"/>
@@ -43121,7 +43126,7 @@
       <c r="F1315" s="12"/>
       <c r="G1315" s="12"/>
       <c r="H1315" s="74" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="I1315" s="47" t="s">
         <v>53</v>
@@ -43139,7 +43144,7 @@
         <v>104</v>
       </c>
       <c r="N1315" s="25" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="O1315" s="13"/>
       <c r="P1315" s="21" t="s">
@@ -43198,7 +43203,7 @@
         <v>106</v>
       </c>
       <c r="N1317" s="25" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="O1317" s="13"/>
       <c r="V1317" s="23"/>
@@ -43225,7 +43230,7 @@
         <v>107</v>
       </c>
       <c r="N1318" s="25" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="O1318" s="13"/>
       <c r="V1318" s="24"/>
@@ -43281,7 +43286,7 @@
         <v>109</v>
       </c>
       <c r="N1320" s="25" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="O1320" s="13"/>
       <c r="V1320" s="23"/>
@@ -43335,7 +43340,7 @@
         <v>111</v>
       </c>
       <c r="N1322" s="25" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="O1322" s="13"/>
       <c r="V1322" s="23"/>
@@ -43362,13 +43367,13 @@
         <v>112</v>
       </c>
       <c r="N1323" s="26" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="O1323" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1323" s="23" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="W1323" s="4"/>
     </row>
@@ -43393,7 +43398,7 @@
         <v>113</v>
       </c>
       <c r="N1324" s="25" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="O1324" s="13"/>
       <c r="V1324" s="23"/>
@@ -43450,7 +43455,7 @@
         <v>115</v>
       </c>
       <c r="N1326" s="25" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="O1326" s="13"/>
       <c r="U1326" s="60" t="s">
@@ -43480,13 +43485,13 @@
         <v>116</v>
       </c>
       <c r="N1327" s="26" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="O1327" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1327" s="23" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="W1327" s="4"/>
     </row>
@@ -43511,13 +43516,13 @@
         <v>117</v>
       </c>
       <c r="N1328" s="26" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="O1328" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1328" s="23" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="W1328" s="4"/>
     </row>
@@ -43542,13 +43547,13 @@
         <v>118</v>
       </c>
       <c r="N1329" s="26" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="O1329" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1329" s="23" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="W1329" s="4"/>
     </row>
@@ -43573,7 +43578,7 @@
         <v>119</v>
       </c>
       <c r="N1330" s="25" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="O1330" s="13"/>
       <c r="V1330" s="23"/>
@@ -43600,13 +43605,13 @@
         <v>120</v>
       </c>
       <c r="N1331" s="26" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="O1331" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1331" s="23" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="W1331" s="4"/>
     </row>
@@ -43658,7 +43663,7 @@
         <v>122</v>
       </c>
       <c r="N1333" s="25" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="O1333" s="13"/>
       <c r="V1333" s="23"/>
@@ -43739,7 +43744,7 @@
         <v>125</v>
       </c>
       <c r="N1336" s="25" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="O1336" s="13"/>
       <c r="V1336" s="23"/>
@@ -43820,7 +43825,7 @@
         <v>128</v>
       </c>
       <c r="N1339" s="26" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="O1339" s="13" t="s">
         <v>24</v>
@@ -43905,7 +43910,7 @@
         <v>131</v>
       </c>
       <c r="N1342" s="25" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="O1342" s="13"/>
       <c r="V1342" s="23"/>
@@ -43986,7 +43991,7 @@
         <v>134</v>
       </c>
       <c r="N1345" s="25" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="O1345" s="13"/>
       <c r="V1345" s="23"/>
@@ -44040,7 +44045,7 @@
         <v>136</v>
       </c>
       <c r="N1347" s="25" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="O1347" s="13"/>
       <c r="V1347" s="23"/>
@@ -44140,7 +44145,7 @@
       <c r="F1351" s="12"/>
       <c r="G1351" s="12"/>
       <c r="H1351" s="73" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="I1351" s="47" t="s">
         <v>54</v>
@@ -44158,7 +44163,7 @@
         <v>1</v>
       </c>
       <c r="N1351" s="25" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="O1351" s="13"/>
       <c r="V1351" s="23"/>
@@ -44172,7 +44177,7 @@
       <c r="F1352" s="12"/>
       <c r="G1352" s="12"/>
       <c r="H1352" s="73" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="I1352" s="47" t="s">
         <v>54</v>
@@ -44190,7 +44195,7 @@
         <v>2</v>
       </c>
       <c r="N1352" s="25" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="O1352" s="13"/>
       <c r="V1352" s="23"/>
@@ -44220,13 +44225,13 @@
         <v>3</v>
       </c>
       <c r="N1353" s="26" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="O1353" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1353" s="23" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="W1353" s="4"/>
     </row>
@@ -44254,7 +44259,7 @@
         <v>4</v>
       </c>
       <c r="N1354" s="25" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="O1354" s="13"/>
       <c r="V1354" s="23"/>
@@ -44284,7 +44289,7 @@
         <v>5</v>
       </c>
       <c r="N1355" s="25" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="O1355" s="13"/>
       <c r="V1355" s="23"/>
@@ -44316,7 +44321,7 @@
         <v>6</v>
       </c>
       <c r="N1356" s="25" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="O1356" s="13"/>
       <c r="V1356" s="23"/>
@@ -44348,7 +44353,7 @@
         <v>7</v>
       </c>
       <c r="N1357" s="25" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="O1357" s="13"/>
       <c r="V1357" s="23"/>
@@ -44380,7 +44385,7 @@
         <v>8</v>
       </c>
       <c r="N1358" s="25" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="O1358" s="13"/>
       <c r="T1358" s="34"/>
@@ -44413,7 +44418,7 @@
         <v>9</v>
       </c>
       <c r="N1359" s="26" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="O1359" s="13" t="s">
         <v>22</v>
@@ -44425,7 +44430,7 @@
         <v>176</v>
       </c>
       <c r="V1359" s="23" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="W1359" s="4"/>
     </row>
@@ -44455,7 +44460,7 @@
         <v>10</v>
       </c>
       <c r="N1360" s="25" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="O1360" s="13"/>
       <c r="P1360" s="21" t="s">
@@ -44490,7 +44495,7 @@
         <v>11</v>
       </c>
       <c r="N1361" s="25" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="O1361" s="13"/>
       <c r="V1361" s="23"/>
@@ -44552,13 +44557,13 @@
         <v>13</v>
       </c>
       <c r="N1363" s="26" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="O1363" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1363" s="23" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="W1363" s="4"/>
     </row>
@@ -44586,7 +44591,7 @@
         <v>14</v>
       </c>
       <c r="N1364" s="25" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="O1364" s="13"/>
       <c r="V1364" s="23"/>
@@ -44600,7 +44605,7 @@
       <c r="F1365" s="12"/>
       <c r="G1365" s="12"/>
       <c r="H1365" s="73" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="I1365" s="47" t="s">
         <v>54</v>
@@ -44618,7 +44623,7 @@
         <v>15</v>
       </c>
       <c r="N1365" s="25" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="O1365" s="13"/>
       <c r="V1365" s="23"/>
@@ -44632,7 +44637,7 @@
       <c r="F1366" s="12"/>
       <c r="G1366" s="12"/>
       <c r="H1366" s="73" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="I1366" s="47" t="s">
         <v>54</v>
@@ -44664,7 +44669,7 @@
       <c r="F1367" s="12"/>
       <c r="G1367" s="12"/>
       <c r="H1367" s="73" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="I1367" s="47" t="s">
         <v>54</v>
@@ -44682,7 +44687,7 @@
         <v>17</v>
       </c>
       <c r="N1367" s="25" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="O1367" s="13"/>
       <c r="V1367" s="23"/>
@@ -44696,7 +44701,7 @@
       <c r="F1368" s="12"/>
       <c r="G1368" s="12"/>
       <c r="H1368" s="73" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="I1368" s="47" t="s">
         <v>54</v>
@@ -44714,7 +44719,7 @@
         <v>18</v>
       </c>
       <c r="N1368" s="25" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="O1368" s="13"/>
       <c r="V1368" s="23"/>
@@ -44728,7 +44733,7 @@
       <c r="F1369" s="12"/>
       <c r="G1369" s="12"/>
       <c r="H1369" s="73" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="I1369" s="47" t="s">
         <v>54</v>
@@ -44746,7 +44751,7 @@
         <v>19</v>
       </c>
       <c r="N1369" s="25" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="O1369" s="13"/>
       <c r="P1369" s="21" t="s">
@@ -44811,7 +44816,7 @@
         <v>21</v>
       </c>
       <c r="N1371" s="25" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="O1371" s="13"/>
       <c r="V1371" s="23"/>
@@ -44841,7 +44846,7 @@
         <v>22</v>
       </c>
       <c r="N1372" s="25" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="O1372" s="13"/>
       <c r="V1372" s="23"/>
@@ -44871,7 +44876,7 @@
         <v>23</v>
       </c>
       <c r="N1373" s="25" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="O1373" s="13"/>
       <c r="V1373" s="23"/>
@@ -44933,7 +44938,7 @@
         <v>25</v>
       </c>
       <c r="N1375" s="25" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="O1375" s="13"/>
       <c r="V1375" s="23"/>
@@ -44963,7 +44968,7 @@
         <v>26</v>
       </c>
       <c r="N1376" s="25" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="O1376" s="13"/>
       <c r="V1376" s="23"/>
@@ -44993,7 +44998,7 @@
         <v>27</v>
       </c>
       <c r="N1377" s="25" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="O1377" s="13"/>
       <c r="P1377" s="21" t="s">
@@ -45028,7 +45033,7 @@
         <v>28</v>
       </c>
       <c r="N1378" s="25" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="O1378" s="2"/>
       <c r="T1378" s="34"/>
@@ -45092,7 +45097,7 @@
         <v>30</v>
       </c>
       <c r="N1380" s="25" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="O1380" s="13"/>
       <c r="V1380" s="23"/>
@@ -45122,7 +45127,7 @@
         <v>31</v>
       </c>
       <c r="N1381" s="25" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="O1381" s="13"/>
       <c r="S1381" s="28"/>
@@ -45154,7 +45159,7 @@
         <v>32</v>
       </c>
       <c r="N1382" s="26" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="O1382" s="13" t="s">
         <v>22</v>
@@ -45164,7 +45169,7 @@
         <v>71</v>
       </c>
       <c r="V1382" s="23" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="W1382" s="4"/>
     </row>
@@ -45224,7 +45229,7 @@
         <v>34</v>
       </c>
       <c r="N1384" s="25" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="O1384" s="13"/>
       <c r="V1384" s="23"/>
@@ -45254,7 +45259,7 @@
         <v>35</v>
       </c>
       <c r="N1385" s="25" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="O1385" s="13"/>
       <c r="V1385" s="23"/>
@@ -45284,7 +45289,7 @@
         <v>36</v>
       </c>
       <c r="N1386" s="25" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="O1386" s="13"/>
       <c r="P1386" s="21" t="s">
@@ -45319,7 +45324,7 @@
         <v>37</v>
       </c>
       <c r="N1387" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="O1387" s="13" t="s">
         <v>23</v>
@@ -45351,7 +45356,7 @@
         <v>38</v>
       </c>
       <c r="N1388" s="25" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="O1388" s="13"/>
       <c r="V1388" s="23"/>
@@ -45413,7 +45418,7 @@
         <v>40</v>
       </c>
       <c r="N1390" s="25" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="O1390" s="13"/>
       <c r="V1390" s="23"/>
@@ -45443,13 +45448,13 @@
         <v>41</v>
       </c>
       <c r="N1391" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="O1391" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1391" s="23" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="W1391" s="4"/>
     </row>
@@ -45477,7 +45482,7 @@
         <v>42</v>
       </c>
       <c r="N1392" s="25" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="O1392" s="13"/>
       <c r="S1392" s="2" t="s">
@@ -45510,7 +45515,7 @@
         <v>43</v>
       </c>
       <c r="N1393" s="25" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="O1393" s="13"/>
       <c r="V1393" s="23"/>
@@ -45540,7 +45545,7 @@
         <v>44</v>
       </c>
       <c r="N1394" s="25" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="O1394" s="13"/>
       <c r="T1394" s="34"/>
@@ -45571,7 +45576,7 @@
         <v>45</v>
       </c>
       <c r="N1395" s="25" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="O1395" s="13"/>
       <c r="T1395" s="34"/>
@@ -45605,7 +45610,7 @@
         <v>46</v>
       </c>
       <c r="N1396" s="25" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="O1396" s="13"/>
       <c r="P1396" s="21" t="s">
@@ -45703,7 +45708,7 @@
         <v>49</v>
       </c>
       <c r="N1399" s="25" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="O1399" s="2"/>
       <c r="T1399" s="34"/>
@@ -45734,7 +45739,7 @@
         <v>50</v>
       </c>
       <c r="N1400" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="O1400" s="2" t="s">
         <v>22</v>
@@ -45744,7 +45749,7 @@
         <v>77</v>
       </c>
       <c r="V1400" s="23" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="W1400" s="4"/>
     </row>
@@ -45756,7 +45761,7 @@
       <c r="F1401" s="12"/>
       <c r="G1401" s="12"/>
       <c r="H1401" s="73" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="I1401" s="47" t="s">
         <v>55</v>
@@ -45789,7 +45794,7 @@
       <c r="F1402" s="12"/>
       <c r="G1402" s="12"/>
       <c r="H1402" s="73" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="I1402" s="47" t="s">
         <v>55</v>
@@ -45807,7 +45812,7 @@
         <v>52</v>
       </c>
       <c r="N1402" s="25" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="O1402" s="13"/>
       <c r="U1402" s="28" t="s">
@@ -45824,7 +45829,7 @@
       <c r="F1403" s="12"/>
       <c r="G1403" s="12"/>
       <c r="H1403" s="73" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="I1403" s="47" t="s">
         <v>55</v>
@@ -45856,7 +45861,7 @@
       <c r="F1404" s="12"/>
       <c r="G1404" s="12"/>
       <c r="H1404" s="73" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="I1404" s="47" t="s">
         <v>55</v>
@@ -45874,14 +45879,14 @@
         <v>54</v>
       </c>
       <c r="N1404" s="26" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="O1404" s="13"/>
       <c r="S1404" s="28" t="s">
         <v>96</v>
       </c>
       <c r="T1404" s="69" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="V1404" s="23"/>
       <c r="W1404" s="4"/>
@@ -45940,7 +45945,7 @@
         <v>56</v>
       </c>
       <c r="N1406" s="25" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="O1406" s="13"/>
       <c r="V1406" s="23"/>
@@ -46002,7 +46007,7 @@
         <v>58</v>
       </c>
       <c r="N1408" s="25" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="O1408" s="13"/>
       <c r="P1408" s="21" t="s">
@@ -46103,7 +46108,7 @@
         <v>61</v>
       </c>
       <c r="N1411" s="25" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="O1411" s="13"/>
       <c r="V1411" s="23"/>
@@ -46135,7 +46140,7 @@
         <v>62</v>
       </c>
       <c r="N1412" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="O1412" s="13" t="s">
         <v>23</v>
@@ -46203,7 +46208,7 @@
         <v>64</v>
       </c>
       <c r="N1414" s="25" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="O1414" s="13"/>
       <c r="V1414" s="23"/>
@@ -46235,7 +46240,7 @@
         <v>65</v>
       </c>
       <c r="N1415" s="25" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="O1415" s="13" t="s">
         <v>23</v>
@@ -46269,7 +46274,7 @@
         <v>66</v>
       </c>
       <c r="N1416" s="25" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="O1416" s="13"/>
       <c r="S1416" s="55" t="s">
@@ -46308,7 +46313,7 @@
         <v>67</v>
       </c>
       <c r="N1417" s="25" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="O1417" s="13"/>
       <c r="V1417" s="23"/>
@@ -46338,7 +46343,7 @@
         <v>68</v>
       </c>
       <c r="N1418" s="26" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="O1418" s="13" t="s">
         <v>22</v>
@@ -46347,7 +46352,7 @@
         <v>67</v>
       </c>
       <c r="V1418" s="23" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="W1418" s="4"/>
     </row>
@@ -46435,7 +46440,7 @@
         <v>71</v>
       </c>
       <c r="N1421" s="25" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="O1421" s="13"/>
       <c r="U1421" s="60" t="s">
@@ -46468,13 +46473,13 @@
         <v>72</v>
       </c>
       <c r="N1422" s="26" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="O1422" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1422" s="23" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="W1422" s="4"/>
     </row>
@@ -46502,7 +46507,7 @@
         <v>73</v>
       </c>
       <c r="N1423" s="25" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="O1423" s="13"/>
       <c r="V1423" s="23"/>
@@ -46532,7 +46537,7 @@
         <v>74</v>
       </c>
       <c r="N1424" s="25" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="O1424" s="13"/>
       <c r="V1424" s="23"/>
@@ -46592,7 +46597,7 @@
         <v>76</v>
       </c>
       <c r="N1426" s="25" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="O1426" s="13"/>
       <c r="V1426" s="23"/>
@@ -46622,7 +46627,7 @@
         <v>77</v>
       </c>
       <c r="N1427" s="25" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="O1427" s="13"/>
       <c r="V1427" s="23"/>
@@ -46652,7 +46657,7 @@
         <v>78</v>
       </c>
       <c r="N1428" s="25" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="O1428" s="13"/>
       <c r="V1428" s="23"/>
@@ -46682,7 +46687,7 @@
         <v>79</v>
       </c>
       <c r="N1429" s="25" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="O1429" s="13"/>
       <c r="P1429" s="21" t="s">
@@ -46761,7 +46766,7 @@
       <c r="F1432" s="12"/>
       <c r="G1432" s="12"/>
       <c r="H1432" s="74" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="I1432" s="47" t="s">
         <v>55</v>
@@ -46779,7 +46784,7 @@
         <v>82</v>
       </c>
       <c r="N1432" s="25" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="O1432" s="13" t="s">
         <v>23</v>
@@ -46795,7 +46800,7 @@
       <c r="F1433" s="12"/>
       <c r="G1433" s="12"/>
       <c r="H1433" s="74" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="I1433" s="47" t="s">
         <v>55</v>
@@ -46813,7 +46818,7 @@
         <v>83</v>
       </c>
       <c r="N1433" s="25" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="O1433" s="13"/>
       <c r="V1433" s="23"/>
@@ -46827,7 +46832,7 @@
       <c r="F1434" s="12"/>
       <c r="G1434" s="12"/>
       <c r="H1434" s="74" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="I1434" s="47" t="s">
         <v>55</v>
@@ -46861,7 +46866,7 @@
       <c r="F1435" s="12"/>
       <c r="G1435" s="12"/>
       <c r="H1435" s="74" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="I1435" s="47" t="s">
         <v>55</v>
@@ -46893,7 +46898,7 @@
       <c r="F1436" s="12"/>
       <c r="G1436" s="12"/>
       <c r="H1436" s="74" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="I1436" s="47" t="s">
         <v>55</v>
@@ -46911,7 +46916,7 @@
         <v>86</v>
       </c>
       <c r="N1436" s="25" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="O1436" s="13"/>
       <c r="S1436" s="28" t="s">
@@ -46931,7 +46936,7 @@
       <c r="F1437" s="12"/>
       <c r="G1437" s="12"/>
       <c r="H1437" s="74" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="I1437" s="47" t="s">
         <v>55</v>
@@ -46949,7 +46954,7 @@
         <v>87</v>
       </c>
       <c r="N1437" s="25" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="O1437" s="13"/>
       <c r="T1437" s="34"/>
@@ -46980,7 +46985,7 @@
         <v>88</v>
       </c>
       <c r="N1438" s="25" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="O1438" s="13"/>
       <c r="V1438" s="23"/>
@@ -47080,7 +47085,7 @@
         <v>91</v>
       </c>
       <c r="N1441" s="25" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="O1441" s="13"/>
       <c r="V1441" s="23"/>
@@ -47110,7 +47115,7 @@
         <v>92</v>
       </c>
       <c r="N1442" s="25" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="O1442" s="13"/>
       <c r="V1442" s="23"/>
@@ -47140,7 +47145,7 @@
         <v>93</v>
       </c>
       <c r="N1443" s="25" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="O1443" s="13"/>
       <c r="V1443" s="23"/>
@@ -47170,7 +47175,7 @@
         <v>94</v>
       </c>
       <c r="N1444" s="25" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="O1444" s="13"/>
       <c r="V1444" s="23"/>
@@ -47200,7 +47205,7 @@
         <v>95</v>
       </c>
       <c r="N1445" s="25" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="O1445" s="13"/>
       <c r="V1445" s="23"/>
@@ -47262,7 +47267,7 @@
         <v>97</v>
       </c>
       <c r="N1447" s="25" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="O1447" s="13"/>
       <c r="S1447" s="4"/>
@@ -47329,7 +47334,7 @@
         <v>99</v>
       </c>
       <c r="N1449" s="25" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="O1449" s="13"/>
       <c r="V1449" s="23"/>
@@ -47389,7 +47394,7 @@
         <v>101</v>
       </c>
       <c r="N1451" s="25" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="O1451" s="13"/>
       <c r="V1451" s="23"/>
@@ -47419,13 +47424,13 @@
         <v>102</v>
       </c>
       <c r="N1452" s="26" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="O1452" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1452" s="23" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="W1452" s="4"/>
     </row>
@@ -47453,7 +47458,7 @@
         <v>103</v>
       </c>
       <c r="N1453" s="25" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="O1453" s="13"/>
       <c r="V1453" s="23"/>
@@ -47513,7 +47518,7 @@
         <v>105</v>
       </c>
       <c r="N1455" s="25" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="O1455" s="13"/>
       <c r="V1455" s="23"/>
@@ -47543,7 +47548,7 @@
         <v>106</v>
       </c>
       <c r="N1456" s="25" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="O1456" s="13"/>
       <c r="V1456" s="23"/>
@@ -47573,7 +47578,7 @@
         <v>107</v>
       </c>
       <c r="N1457" s="25" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="O1457" s="13"/>
       <c r="V1457" s="23"/>
@@ -47603,7 +47608,7 @@
         <v>108</v>
       </c>
       <c r="N1458" s="25" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="O1458" s="13"/>
       <c r="P1458" s="21" t="s">
@@ -47638,7 +47643,7 @@
         <v>109</v>
       </c>
       <c r="N1459" s="25" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="O1459" s="13"/>
       <c r="V1459" s="23"/>
@@ -47668,7 +47673,7 @@
         <v>110</v>
       </c>
       <c r="N1460" s="25" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="O1460" s="13"/>
       <c r="V1460" s="23"/>
@@ -47698,13 +47703,13 @@
         <v>111</v>
       </c>
       <c r="N1461" s="26" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="O1461" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1461" s="23" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="W1461" s="4"/>
     </row>
@@ -47762,7 +47767,7 @@
         <v>113</v>
       </c>
       <c r="N1463" s="25" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="O1463" s="13"/>
       <c r="V1463" s="23"/>
@@ -47792,7 +47797,7 @@
         <v>114</v>
       </c>
       <c r="N1464" s="25" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="O1464" s="13"/>
       <c r="U1464" s="60" t="s">
@@ -47857,7 +47862,7 @@
         <v>116</v>
       </c>
       <c r="N1466" s="25" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="O1466" s="13"/>
       <c r="V1466" s="23"/>
@@ -47922,7 +47927,7 @@
         <v>118</v>
       </c>
       <c r="N1468" s="25" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="O1468" s="13"/>
       <c r="P1468" s="21" t="s">
@@ -47960,7 +47965,7 @@
         <v>119</v>
       </c>
       <c r="N1469" s="25" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="O1469" s="13"/>
       <c r="S1469" s="39" t="s">
@@ -48094,13 +48099,13 @@
         <v>123</v>
       </c>
       <c r="N1473" s="26" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="O1473" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1473" s="23" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="W1473" s="4"/>
     </row>
@@ -48128,13 +48133,13 @@
         <v>124</v>
       </c>
       <c r="N1474" s="26" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="O1474" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1474" s="23" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="W1474" s="4"/>
     </row>
@@ -48222,7 +48227,7 @@
         <v>127</v>
       </c>
       <c r="N1477" s="25" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="O1477" s="13"/>
       <c r="V1477" s="23"/>
@@ -48312,7 +48317,7 @@
         <v>130</v>
       </c>
       <c r="N1480" s="25" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="O1480" s="13"/>
       <c r="P1480" s="21" t="s">
@@ -48347,7 +48352,7 @@
         <v>131</v>
       </c>
       <c r="N1481" s="25" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O1481" s="13"/>
       <c r="V1481" s="23"/>
@@ -48377,7 +48382,7 @@
         <v>132</v>
       </c>
       <c r="N1482" s="25" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="O1482" s="13"/>
       <c r="V1482" s="23"/>
@@ -48407,7 +48412,7 @@
         <v>133</v>
       </c>
       <c r="N1483" s="25" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="O1483" s="13"/>
       <c r="V1483" s="23"/>
@@ -48437,13 +48442,13 @@
         <v>134</v>
       </c>
       <c r="N1484" s="26" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="O1484" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1484" s="23" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="W1484" s="4"/>
     </row>
@@ -48531,7 +48536,7 @@
         <v>137</v>
       </c>
       <c r="N1487" s="25" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="O1487" s="13"/>
       <c r="V1487" s="23"/>
@@ -48561,13 +48566,13 @@
         <v>138</v>
       </c>
       <c r="N1488" s="26" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="O1488" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1488" s="23" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="W1488" s="4"/>
     </row>
@@ -48625,7 +48630,7 @@
         <v>140</v>
       </c>
       <c r="N1490" s="25" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="O1490" s="13"/>
       <c r="V1490" s="23"/>
@@ -48655,7 +48660,7 @@
         <v>141</v>
       </c>
       <c r="N1491" s="25" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="O1491" s="13"/>
       <c r="P1491" s="21" t="s">
@@ -48753,13 +48758,13 @@
         <v>144</v>
       </c>
       <c r="N1494" s="26" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="O1494" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1494" s="23" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="W1494" s="4"/>
     </row>
@@ -48787,7 +48792,7 @@
         <v>145</v>
       </c>
       <c r="N1495" s="25" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="O1495" s="13"/>
       <c r="V1495" s="23"/>
@@ -48820,7 +48825,7 @@
         <v>146</v>
       </c>
       <c r="N1496" s="25" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="O1496" s="13"/>
       <c r="S1496" s="4"/>
@@ -48913,7 +48918,7 @@
         <v>149</v>
       </c>
       <c r="N1499" s="25" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="O1499" s="13"/>
       <c r="V1499" s="23"/>
@@ -48943,7 +48948,7 @@
         <v>150</v>
       </c>
       <c r="N1500" s="25" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="O1500" s="13"/>
       <c r="V1500" s="23"/>
@@ -49003,7 +49008,7 @@
         <v>152</v>
       </c>
       <c r="N1502" s="25" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="O1502" s="13"/>
       <c r="P1502" s="21" t="s">
@@ -49038,13 +49043,13 @@
         <v>153</v>
       </c>
       <c r="N1503" s="26" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="O1503" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1503" s="23" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="W1503" s="4"/>
     </row>
@@ -49102,13 +49107,13 @@
         <v>155</v>
       </c>
       <c r="N1505" s="26" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="O1505" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1505" s="23" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="W1505" s="4"/>
     </row>
@@ -49136,7 +49141,7 @@
         <v>156</v>
       </c>
       <c r="N1506" s="25" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="O1506" s="13"/>
       <c r="U1506" s="60"/>
@@ -49204,7 +49209,7 @@
         <v>158</v>
       </c>
       <c r="N1508" s="25" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="O1508" s="13"/>
       <c r="V1508" s="23"/>
@@ -49234,7 +49239,7 @@
         <v>159</v>
       </c>
       <c r="N1509" s="25" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="O1509" s="13"/>
       <c r="V1509" s="23"/>
@@ -49296,7 +49301,7 @@
         <v>161</v>
       </c>
       <c r="N1511" s="25" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="O1511" s="13"/>
       <c r="P1511" s="21" t="s">
@@ -49391,7 +49396,7 @@
         <v>164</v>
       </c>
       <c r="N1514" s="25" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="O1514" s="13"/>
       <c r="V1514" s="23"/>
@@ -49453,7 +49458,7 @@
         <v>166</v>
       </c>
       <c r="N1516" s="25" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="O1516" s="13"/>
       <c r="V1516" s="23"/>
@@ -49467,7 +49472,7 @@
       <c r="F1517" s="12"/>
       <c r="G1517" s="12"/>
       <c r="H1517" s="74" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="I1517" s="47" t="s">
         <v>57</v>
@@ -49485,7 +49490,7 @@
         <v>167</v>
       </c>
       <c r="N1517" s="25" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="O1517" s="13" t="s">
         <v>23</v>
@@ -49501,7 +49506,7 @@
       <c r="F1518" s="12"/>
       <c r="G1518" s="12"/>
       <c r="H1518" s="74" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="I1518" s="47" t="s">
         <v>57</v>
@@ -49519,7 +49524,7 @@
         <v>168</v>
       </c>
       <c r="N1518" s="26" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="O1518" s="13"/>
       <c r="V1518" s="23"/>
@@ -49534,7 +49539,7 @@
       <c r="F1519" s="12"/>
       <c r="G1519" s="12"/>
       <c r="H1519" s="74" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="I1519" s="47" t="s">
         <v>57</v>
@@ -49552,7 +49557,7 @@
         <v>169</v>
       </c>
       <c r="N1519" s="26" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O1519" s="13" t="s">
         <v>22</v>
@@ -49564,7 +49569,7 @@
         <v>180</v>
       </c>
       <c r="V1519" s="23" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="W1519" s="4"/>
     </row>
@@ -49576,7 +49581,7 @@
       <c r="F1520" s="12"/>
       <c r="G1520" s="12"/>
       <c r="H1520" s="74" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="I1520" s="47" t="s">
         <v>57</v>
@@ -49594,7 +49599,7 @@
         <v>170</v>
       </c>
       <c r="N1520" s="25" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="O1520" s="13"/>
       <c r="V1520" s="23"/>
@@ -49608,7 +49613,7 @@
       <c r="F1521" s="12"/>
       <c r="G1521" s="12"/>
       <c r="H1521" s="74" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="I1521" s="47" t="s">
         <v>57</v>
@@ -49642,7 +49647,7 @@
       <c r="F1522" s="12"/>
       <c r="G1522" s="12"/>
       <c r="H1522" s="74" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="I1522" s="47" t="s">
         <v>57</v>
@@ -49660,7 +49665,7 @@
         <v>172</v>
       </c>
       <c r="N1522" s="25" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="O1522" s="13"/>
       <c r="P1522" s="21" t="s">
@@ -49695,7 +49700,7 @@
         <v>173</v>
       </c>
       <c r="N1523" s="25" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="O1523" s="13"/>
       <c r="V1523" s="23"/>
@@ -49757,13 +49762,13 @@
         <v>175</v>
       </c>
       <c r="N1525" s="26" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="O1525" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1525" s="23" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="W1525" s="4"/>
     </row>
@@ -49772,7 +49777,7 @@
         <v>65</v>
       </c>
       <c r="D1526" s="11" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="E1526" s="12"/>
       <c r="F1526" s="12"/>
@@ -49796,7 +49801,7 @@
         <v>176</v>
       </c>
       <c r="N1526" s="25" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O1526" s="13"/>
       <c r="S1526" s="2" t="s">
@@ -49813,7 +49818,7 @@
         <v>65</v>
       </c>
       <c r="D1527" s="11" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="E1527" s="12"/>
       <c r="F1527" s="12"/>
@@ -49872,7 +49877,7 @@
         <v>178</v>
       </c>
       <c r="N1528" s="25" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="O1528" s="13"/>
       <c r="V1528" s="23"/>
@@ -49902,7 +49907,7 @@
         <v>179</v>
       </c>
       <c r="N1529" s="25" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="O1529" s="13"/>
       <c r="V1529" s="23"/>
@@ -49932,7 +49937,7 @@
         <v>180</v>
       </c>
       <c r="N1530" s="25" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="O1530" s="13"/>
       <c r="P1530" s="21" t="s">
@@ -50027,13 +50032,13 @@
         <v>183</v>
       </c>
       <c r="N1533" s="26" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="O1533" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1533" s="23" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="W1533" s="4"/>
     </row>
@@ -50061,14 +50066,14 @@
         <v>184</v>
       </c>
       <c r="N1534" s="26" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="O1534" s="13" t="s">
         <v>22</v>
       </c>
       <c r="T1534" s="34"/>
       <c r="V1534" s="23" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="W1534" s="4"/>
     </row>
@@ -50129,13 +50134,13 @@
         <v>186</v>
       </c>
       <c r="N1536" s="26" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="O1536" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1536" s="23" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="W1536" s="4"/>
     </row>
@@ -50163,13 +50168,13 @@
         <v>187</v>
       </c>
       <c r="N1537" s="26" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="O1537" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1537" s="23" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="W1537" s="4"/>
     </row>
@@ -50197,7 +50202,7 @@
         <v>188</v>
       </c>
       <c r="N1538" s="25" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="O1538" s="13"/>
       <c r="P1538" s="21" t="s">
@@ -50262,7 +50267,7 @@
         <v>190</v>
       </c>
       <c r="N1540" s="25" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="O1540" s="13"/>
       <c r="V1540" s="23"/>
@@ -50292,7 +50297,7 @@
         <v>191</v>
       </c>
       <c r="N1541" s="25" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="O1541" s="13"/>
       <c r="V1541" s="23"/>
@@ -50442,7 +50447,7 @@
         <v>196</v>
       </c>
       <c r="N1546" s="25" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O1546" s="13"/>
       <c r="V1546" s="23"/>
@@ -50472,7 +50477,7 @@
         <v>197</v>
       </c>
       <c r="N1547" s="25" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="O1547" s="13"/>
       <c r="V1547" s="23"/>
@@ -50502,7 +50507,7 @@
         <v>198</v>
       </c>
       <c r="N1548" s="25" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="O1548" s="13"/>
       <c r="P1548" s="21" t="s">
@@ -50537,7 +50542,7 @@
         <v>199</v>
       </c>
       <c r="N1549" s="25" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="O1549" s="13"/>
       <c r="V1549" s="23"/>
@@ -50567,7 +50572,7 @@
         <v>200</v>
       </c>
       <c r="N1550" s="25" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="O1550" s="13"/>
       <c r="V1550" s="23"/>
@@ -50597,7 +50602,7 @@
         <v>201</v>
       </c>
       <c r="N1551" s="25" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="O1551" s="13"/>
       <c r="V1551" s="23"/>
@@ -50627,13 +50632,13 @@
         <v>202</v>
       </c>
       <c r="N1552" s="26" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="O1552" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1552" s="23" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="W1552" s="4"/>
     </row>
@@ -50721,7 +50726,7 @@
         <v>205</v>
       </c>
       <c r="N1555" s="25" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="O1555" s="13"/>
       <c r="V1555" s="23"/>
@@ -50751,7 +50756,7 @@
         <v>206</v>
       </c>
       <c r="N1556" s="25" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="O1556" s="13"/>
       <c r="V1556" s="23"/>
@@ -50813,7 +50818,7 @@
         <v>208</v>
       </c>
       <c r="N1558" s="25" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="O1558" s="13"/>
       <c r="P1558" s="21" t="s">
@@ -50951,7 +50956,7 @@
         <v>212</v>
       </c>
       <c r="N1562" s="25" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="O1562" s="13"/>
       <c r="V1562" s="23"/>
@@ -50981,7 +50986,7 @@
         <v>213</v>
       </c>
       <c r="N1563" s="25" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="O1563" s="13"/>
       <c r="V1563" s="23"/>
@@ -51014,7 +51019,7 @@
         <v>214</v>
       </c>
       <c r="N1564" s="25" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="O1564" s="13"/>
       <c r="S1564" s="2" t="s">
@@ -51050,7 +51055,7 @@
         <v>215</v>
       </c>
       <c r="N1565" s="25" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="O1565" s="13"/>
       <c r="V1565" s="23"/>
@@ -51080,13 +51085,13 @@
         <v>216</v>
       </c>
       <c r="N1566" s="26" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="O1566" s="13" t="s">
         <v>21</v>
       </c>
       <c r="V1566" s="23" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="W1566" s="4"/>
     </row>
@@ -51114,7 +51119,7 @@
         <v>217</v>
       </c>
       <c r="N1567" s="25" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="O1567" s="13"/>
       <c r="P1567" s="21" t="s">
@@ -51149,7 +51154,7 @@
         <v>218</v>
       </c>
       <c r="N1568" s="26" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="O1568" s="13" t="s">
         <v>22</v>
@@ -51159,7 +51164,7 @@
         <v>95</v>
       </c>
       <c r="V1568" s="23" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="W1568" s="4"/>
     </row>
@@ -51187,7 +51192,7 @@
         <v>219</v>
       </c>
       <c r="N1569" s="26" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="O1569" s="13"/>
       <c r="V1569" s="23"/>
@@ -51217,7 +51222,7 @@
         <v>220</v>
       </c>
       <c r="N1570" s="26" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="O1570" s="13" t="s">
         <v>22</v>
@@ -51225,7 +51230,7 @@
       <c r="T1570" s="34"/>
       <c r="U1570" s="25"/>
       <c r="V1570" s="23" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="W1570" s="4"/>
     </row>
@@ -51253,7 +51258,7 @@
         <v>221</v>
       </c>
       <c r="N1571" s="25" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="O1571" s="13"/>
       <c r="T1571" s="34"/>
@@ -51287,7 +51292,7 @@
         <v>222</v>
       </c>
       <c r="N1572" s="25" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O1572" s="13"/>
       <c r="V1572" s="23"/>
@@ -51317,7 +51322,7 @@
         <v>223</v>
       </c>
       <c r="N1573" s="25" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="O1573" s="13"/>
       <c r="P1573" s="21" t="s">
@@ -51382,7 +51387,7 @@
         <v>225</v>
       </c>
       <c r="N1575" s="25" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="O1575" s="13"/>
       <c r="V1575" s="23"/>
@@ -51412,7 +51417,7 @@
         <v>226</v>
       </c>
       <c r="N1576" s="25" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="O1576" s="13"/>
       <c r="V1576" s="23"/>
@@ -51426,7 +51431,7 @@
       <c r="F1577" s="12"/>
       <c r="G1577" s="12"/>
       <c r="H1577" s="74" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="I1577" s="47" t="s">
         <v>58</v>
@@ -51444,13 +51449,13 @@
         <v>227</v>
       </c>
       <c r="N1577" s="26" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="O1577" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1577" s="23" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="W1577" s="4"/>
     </row>
@@ -51459,7 +51464,7 @@
         <v>65</v>
       </c>
       <c r="H1578" s="74" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="I1578" s="47" t="s">
         <v>58</v>
@@ -51488,7 +51493,7 @@
         <v>65</v>
       </c>
       <c r="H1579" s="74" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="I1579" s="47" t="s">
         <v>58</v>
@@ -51517,7 +51522,7 @@
         <v>65</v>
       </c>
       <c r="H1580" s="74" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="I1580" s="47" t="s">
         <v>58</v>
@@ -51546,7 +51551,7 @@
         <v>65</v>
       </c>
       <c r="H1581" s="74" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="I1581" s="47" t="s">
         <v>58</v>
@@ -51575,7 +51580,7 @@
         <v>65</v>
       </c>
       <c r="H1582" s="74" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="I1582" s="47" t="s">
         <v>58</v>
@@ -51593,7 +51598,7 @@
         <v>232</v>
       </c>
       <c r="N1582" s="25" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="O1582" s="13"/>
       <c r="P1582" s="21" t="s">
@@ -51650,7 +51655,7 @@
         <v>234</v>
       </c>
       <c r="N1584" s="25" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="O1584" s="13"/>
       <c r="V1584" s="23"/>
@@ -51676,7 +51681,7 @@
         <v>235</v>
       </c>
       <c r="N1585" s="25" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="O1585" s="13"/>
       <c r="V1585" s="23"/>
@@ -51758,7 +51763,7 @@
         <v>238</v>
       </c>
       <c r="N1588" s="25" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="O1588" s="13"/>
       <c r="V1588" s="23"/>
@@ -51784,7 +51789,7 @@
         <v>239</v>
       </c>
       <c r="N1589" s="25" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O1589" s="13"/>
       <c r="U1589" s="39" t="s">
@@ -51813,13 +51818,13 @@
         <v>240</v>
       </c>
       <c r="N1590" s="26" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="O1590" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1590" s="23" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="W1590" s="4"/>
     </row>
@@ -51843,7 +51848,7 @@
         <v>241</v>
       </c>
       <c r="N1591" s="25" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="O1591" s="13"/>
       <c r="P1591" s="21" t="s">
@@ -51860,7 +51865,7 @@
         <v>65</v>
       </c>
       <c r="H1592" s="74" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="I1592" s="47" t="s">
         <v>58</v>
@@ -51878,7 +51883,7 @@
         <v>242</v>
       </c>
       <c r="N1592" s="25" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="O1592" s="13"/>
       <c r="V1592" s="23"/>
@@ -51889,10 +51894,10 @@
         <v>65</v>
       </c>
       <c r="D1593" s="11" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="H1593" s="4" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="I1593" s="47" t="s">
         <v>58</v>
@@ -51917,7 +51922,7 @@
         <v>97</v>
       </c>
       <c r="T1593" s="21" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="V1593" s="23"/>
       <c r="W1593" s="4"/>
@@ -51927,7 +51932,7 @@
         <v>65</v>
       </c>
       <c r="H1594" s="74" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="I1594" s="47" t="s">
         <v>58</v>
@@ -51945,13 +51950,13 @@
         <v>244</v>
       </c>
       <c r="N1594" s="26" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="O1594" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1594" s="23" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="W1594" s="4"/>
     </row>
@@ -51975,13 +51980,13 @@
         <v>245</v>
       </c>
       <c r="N1595" s="26" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="O1595" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1595" s="23" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="W1595" s="4"/>
     </row>
@@ -52005,7 +52010,7 @@
         <v>246</v>
       </c>
       <c r="N1596" s="25" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="O1596" s="13"/>
       <c r="V1596" s="23"/>
@@ -52016,7 +52021,7 @@
         <v>65</v>
       </c>
       <c r="H1597" s="74" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="I1597" s="47" t="s">
         <v>58</v>
@@ -52045,7 +52050,7 @@
         <v>65</v>
       </c>
       <c r="H1598" s="74" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="I1598" s="47" t="s">
         <v>58</v>
@@ -52063,7 +52068,7 @@
         <v>248</v>
       </c>
       <c r="N1598" s="25" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="O1598" s="13"/>
       <c r="V1598" s="23"/>
@@ -52074,7 +52079,7 @@
         <v>65</v>
       </c>
       <c r="H1599" s="74" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="I1599" s="47" t="s">
         <v>58</v>
@@ -52092,7 +52097,7 @@
         <v>249</v>
       </c>
       <c r="N1599" s="25" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="O1599" s="13"/>
       <c r="S1599" s="2" t="s">
@@ -52106,7 +52111,7 @@
         <v>65</v>
       </c>
       <c r="H1600" s="74" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="I1600" s="47" t="s">
         <v>58</v>
@@ -52124,7 +52129,7 @@
         <v>250</v>
       </c>
       <c r="N1600" s="25" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="O1600" s="13"/>
       <c r="V1600" s="23"/>
@@ -52135,7 +52140,7 @@
         <v>65</v>
       </c>
       <c r="H1601" s="74" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="I1601" s="47" t="s">
         <v>59</v>
@@ -52153,7 +52158,7 @@
         <v>251</v>
       </c>
       <c r="N1601" s="25" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="O1601" s="13"/>
       <c r="P1601" s="21" t="s">
@@ -52184,7 +52189,7 @@
         <v>252</v>
       </c>
       <c r="N1602" s="25" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="O1602" s="13"/>
       <c r="V1602" s="23"/>
@@ -52236,13 +52241,13 @@
         <v>254</v>
       </c>
       <c r="N1604" s="26" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="O1604" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1604" s="23" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="W1604" s="4"/>
     </row>
@@ -52266,7 +52271,7 @@
         <v>255</v>
       </c>
       <c r="N1605" s="25" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="O1605" s="13"/>
       <c r="V1605" s="23"/>
@@ -52318,13 +52323,13 @@
         <v>257</v>
       </c>
       <c r="N1607" s="26" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="O1607" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1607" s="23" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="W1607" s="4"/>
     </row>
@@ -52348,7 +52353,7 @@
         <v>258</v>
       </c>
       <c r="N1608" s="25" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="O1608" s="13"/>
       <c r="V1608" s="23"/>
@@ -52377,7 +52382,7 @@
         <v>259</v>
       </c>
       <c r="N1609" s="25" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="O1609" s="13"/>
       <c r="P1609" s="21" t="s">
@@ -52409,7 +52414,7 @@
         <v>260</v>
       </c>
       <c r="N1610" s="25" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="O1610" s="13"/>
       <c r="V1610" s="23"/>
@@ -52435,7 +52440,7 @@
         <v>261</v>
       </c>
       <c r="N1611" s="25" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="O1611" s="13"/>
       <c r="V1611" s="23"/>
@@ -52461,7 +52466,7 @@
         <v>262</v>
       </c>
       <c r="N1612" s="25" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="O1612" s="13"/>
       <c r="V1612" s="23"/>
@@ -52487,13 +52492,13 @@
         <v>263</v>
       </c>
       <c r="N1613" s="26" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="O1613" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1613" s="23" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="W1613" s="4"/>
     </row>
@@ -52517,7 +52522,7 @@
         <v>264</v>
       </c>
       <c r="N1614" s="25" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="O1614" s="13"/>
       <c r="V1614" s="23"/>
@@ -52569,7 +52574,7 @@
         <v>266</v>
       </c>
       <c r="N1616" s="25" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="O1616" s="13"/>
       <c r="P1616" s="21" t="s">
@@ -52585,7 +52590,7 @@
         <v>65</v>
       </c>
       <c r="H1617" s="74" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="I1617" s="47" t="s">
         <v>59</v>
@@ -52603,7 +52608,7 @@
         <v>267</v>
       </c>
       <c r="N1617" s="25" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="O1617" s="13"/>
       <c r="V1617" s="23"/>
@@ -52614,7 +52619,7 @@
         <v>65</v>
       </c>
       <c r="H1618" s="74" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="I1618" s="47" t="s">
         <v>59</v>
@@ -52644,7 +52649,7 @@
         <v>65</v>
       </c>
       <c r="H1619" s="74" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="I1619" s="47" t="s">
         <v>59</v>
@@ -52676,7 +52681,7 @@
         <v>65</v>
       </c>
       <c r="H1620" s="74" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="I1620" s="47" t="s">
         <v>59</v>
@@ -52694,13 +52699,13 @@
         <v>270</v>
       </c>
       <c r="N1620" s="26" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="O1620" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1620" s="23" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="W1620" s="4"/>
     </row>
@@ -52724,7 +52729,7 @@
         <v>271</v>
       </c>
       <c r="N1621" s="25" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="O1621" s="13"/>
       <c r="V1621" s="23"/>
@@ -52750,7 +52755,7 @@
         <v>272</v>
       </c>
       <c r="N1622" s="25" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="O1622" s="13" t="s">
         <v>23</v>
@@ -52778,7 +52783,7 @@
         <v>273</v>
       </c>
       <c r="N1623" s="25" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="O1623" s="13"/>
       <c r="V1623" s="23"/>
@@ -52804,7 +52809,7 @@
         <v>274</v>
       </c>
       <c r="N1624" s="25" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="O1624" s="13"/>
       <c r="V1624" s="23"/>
@@ -52830,7 +52835,7 @@
         <v>275</v>
       </c>
       <c r="N1625" s="25" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="O1625" s="13"/>
       <c r="P1625" s="21" t="s">
@@ -52861,7 +52866,7 @@
         <v>276</v>
       </c>
       <c r="N1626" s="25" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="O1626" s="13"/>
       <c r="U1626" s="60"/>
@@ -52888,7 +52893,7 @@
         <v>277</v>
       </c>
       <c r="N1627" s="25" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="O1627" s="13"/>
       <c r="U1627" s="60" t="s">
@@ -52917,7 +52922,7 @@
         <v>278</v>
       </c>
       <c r="N1628" s="25" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="O1628" s="13"/>
       <c r="V1628" s="23"/>
@@ -52998,7 +53003,7 @@
         <v>281</v>
       </c>
       <c r="N1631" s="25" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="O1631" s="13"/>
       <c r="V1631" s="23"/>
@@ -53024,7 +53029,7 @@
         <v>282</v>
       </c>
       <c r="N1632" s="25" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="O1632" s="13"/>
       <c r="V1632" s="23"/>
@@ -53050,14 +53055,14 @@
         <v>283</v>
       </c>
       <c r="N1633" s="26" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="O1633" s="13" t="s">
         <v>22</v>
       </c>
       <c r="U1633" s="60"/>
       <c r="V1633" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="W1633" s="4"/>
     </row>
@@ -53081,7 +53086,7 @@
         <v>284</v>
       </c>
       <c r="N1634" s="25" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="O1634" s="13"/>
       <c r="P1634" s="21" t="s">
@@ -53115,13 +53120,13 @@
         <v>285</v>
       </c>
       <c r="N1635" s="26" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="O1635" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1635" s="23" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="W1635" s="4"/>
     </row>
@@ -53145,7 +53150,7 @@
         <v>286</v>
       </c>
       <c r="N1636" s="25" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="O1636" s="13"/>
       <c r="V1636" s="23"/>
@@ -53225,7 +53230,7 @@
         <v>289</v>
       </c>
       <c r="N1639" s="25" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="O1639" s="13"/>
       <c r="V1639" s="23"/>
@@ -53251,7 +53256,7 @@
         <v>290</v>
       </c>
       <c r="N1640" s="25" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="O1640" s="13"/>
       <c r="V1640" s="23"/>
@@ -53277,7 +53282,7 @@
         <v>291</v>
       </c>
       <c r="N1641" s="25" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="O1641" s="13" t="s">
         <v>23</v>
@@ -53305,7 +53310,7 @@
         <v>292</v>
       </c>
       <c r="N1642" s="25" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="O1642" s="13"/>
       <c r="V1642" s="23"/>
@@ -53362,7 +53367,7 @@
         <v>294</v>
       </c>
       <c r="N1644" s="25" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="O1644" s="13"/>
       <c r="U1644" s="60"/>
@@ -53389,7 +53394,7 @@
         <v>295</v>
       </c>
       <c r="N1645" s="25" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="O1645" s="13"/>
       <c r="U1645" s="39" t="s">
@@ -53418,13 +53423,13 @@
         <v>296</v>
       </c>
       <c r="N1646" s="26" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="O1646" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1646" s="23" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="W1646" s="4"/>
     </row>
@@ -53448,13 +53453,13 @@
         <v>297</v>
       </c>
       <c r="N1647" s="26" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="O1647" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1647" s="23" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="W1647" s="4"/>
     </row>
@@ -53478,7 +53483,7 @@
         <v>298</v>
       </c>
       <c r="N1648" s="25" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="O1648" s="13"/>
       <c r="V1648" s="23"/>
@@ -53530,7 +53535,7 @@
         <v>300</v>
       </c>
       <c r="N1650" s="25" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="O1650" s="13"/>
       <c r="V1650" s="23"/>
@@ -53556,7 +53561,7 @@
         <v>301</v>
       </c>
       <c r="N1651" s="25" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="O1651" s="13"/>
       <c r="V1651" s="23"/>
@@ -53582,7 +53587,7 @@
         <v>302</v>
       </c>
       <c r="N1652" s="25" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="O1652" s="13"/>
       <c r="V1652" s="23"/>
@@ -53634,7 +53639,7 @@
         <v>304</v>
       </c>
       <c r="N1654" s="25" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="O1654" s="13"/>
       <c r="P1654" s="21" t="s">
@@ -53693,7 +53698,7 @@
         <v>306</v>
       </c>
       <c r="N1656" s="25" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="O1656" s="13"/>
       <c r="V1656" s="23"/>
@@ -53719,7 +53724,7 @@
         <v>307</v>
       </c>
       <c r="N1657" s="25" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="O1657" s="13"/>
       <c r="V1657" s="23"/>
@@ -53745,7 +53750,7 @@
         <v>308</v>
       </c>
       <c r="N1658" s="25" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="O1658" s="13"/>
       <c r="V1658" s="23"/>
@@ -53771,7 +53776,7 @@
         <v>309</v>
       </c>
       <c r="N1659" s="25" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="O1659" s="13"/>
       <c r="V1659" s="23"/>
@@ -53797,7 +53802,7 @@
         <v>310</v>
       </c>
       <c r="N1660" s="25" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="O1660" s="13"/>
       <c r="V1660" s="23"/>
@@ -53823,7 +53828,7 @@
         <v>311</v>
       </c>
       <c r="N1661" s="25" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="O1661" s="13"/>
       <c r="V1661" s="23"/>
@@ -53849,7 +53854,7 @@
         <v>312</v>
       </c>
       <c r="N1662" s="25" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="O1662" s="13"/>
       <c r="V1662" s="23"/>
@@ -53875,7 +53880,7 @@
         <v>313</v>
       </c>
       <c r="N1663" s="26" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="O1663" s="13" t="s">
         <v>22</v>
@@ -53884,7 +53889,7 @@
         <v>67</v>
       </c>
       <c r="V1663" s="23" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="W1663" s="4"/>
     </row>
@@ -53936,7 +53941,7 @@
         <v>315</v>
       </c>
       <c r="N1665" s="25" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="O1665" s="13"/>
       <c r="V1665" s="23"/>
@@ -53962,7 +53967,7 @@
         <v>316</v>
       </c>
       <c r="N1666" s="25" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="O1666" s="13"/>
       <c r="V1666" s="23"/>
@@ -53988,7 +53993,7 @@
         <v>317</v>
       </c>
       <c r="N1667" s="25" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="O1667" s="13"/>
       <c r="V1667" s="23"/>
@@ -54014,13 +54019,13 @@
         <v>318</v>
       </c>
       <c r="N1668" s="26" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="O1668" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1668" s="23" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="W1668" s="4"/>
     </row>
@@ -54044,7 +54049,7 @@
         <v>319</v>
       </c>
       <c r="N1669" s="25" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="O1669" s="13"/>
       <c r="V1669" s="23"/>
@@ -54070,7 +54075,7 @@
         <v>320</v>
       </c>
       <c r="N1670" s="26" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="O1670" s="13" t="s">
         <v>24</v>
@@ -54100,7 +54105,7 @@
         <v>321</v>
       </c>
       <c r="N1671" s="25" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="O1671" s="13"/>
       <c r="V1671" s="23"/>
@@ -54126,7 +54131,7 @@
         <v>322</v>
       </c>
       <c r="N1672" s="26" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="O1672" s="13" t="s">
         <v>22</v>
@@ -54135,7 +54140,7 @@
         <v>67</v>
       </c>
       <c r="V1672" s="23" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="W1672" s="4"/>
     </row>
@@ -54159,7 +54164,7 @@
         <v>323</v>
       </c>
       <c r="N1673" s="25" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O1673" s="13"/>
       <c r="V1673" s="23"/>
@@ -54185,7 +54190,7 @@
         <v>324</v>
       </c>
       <c r="N1674" s="25" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="O1674" s="13"/>
       <c r="V1674" s="23"/>
@@ -54240,7 +54245,7 @@
         <v>326</v>
       </c>
       <c r="N1676" s="25" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="O1676" s="13"/>
       <c r="S1676" s="2" t="s">
@@ -54298,13 +54303,13 @@
         <v>328</v>
       </c>
       <c r="N1678" s="26" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="O1678" s="13" t="s">
         <v>22</v>
       </c>
       <c r="V1678" s="23" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="W1678" s="4"/>
     </row>
@@ -54313,7 +54318,7 @@
         <v>65</v>
       </c>
       <c r="H1679" s="74" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="I1679" s="47" t="s">
         <v>60</v>
@@ -54331,7 +54336,7 @@
         <v>329</v>
       </c>
       <c r="N1679" s="25" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="O1679" s="13"/>
       <c r="V1679" s="23"/>
@@ -54342,7 +54347,7 @@
         <v>65</v>
       </c>
       <c r="H1680" s="74" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="I1680" s="47" t="s">
         <v>60</v>
@@ -54360,7 +54365,7 @@
         <v>330</v>
       </c>
       <c r="N1680" s="25" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="O1680" s="13"/>
       <c r="V1680" s="23"/>
@@ -54371,7 +54376,7 @@
         <v>65</v>
       </c>
       <c r="H1681" s="74" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="I1681" s="47" t="s">
         <v>60</v>
@@ -54405,7 +54410,7 @@
         <v>65</v>
       </c>
       <c r="H1682" s="74" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="I1682" s="47" t="s">
         <v>60</v>
@@ -54423,7 +54428,7 @@
         <v>332</v>
       </c>
       <c r="N1682" s="25" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="O1682" s="13"/>
       <c r="V1682" s="23"/>
@@ -54434,7 +54439,7 @@
         <v>65</v>
       </c>
       <c r="H1683" s="74" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="I1683" s="47" t="s">
         <v>60</v>
@@ -54452,7 +54457,7 @@
         <v>333</v>
       </c>
       <c r="N1683" s="25" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="O1683" s="13"/>
       <c r="V1683" s="23"/>
@@ -54463,7 +54468,7 @@
         <v>65</v>
       </c>
       <c r="H1684" s="74" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="I1684" s="47" t="s">
         <v>60</v>
@@ -54492,7 +54497,7 @@
         <v>65</v>
       </c>
       <c r="H1685" s="74" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="I1685" s="47" t="s">
         <v>60</v>
@@ -54523,7 +54528,7 @@
         <v>65</v>
       </c>
       <c r="H1686" s="74" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="I1686" s="47" t="s">
         <v>60</v>
@@ -54541,7 +54546,7 @@
         <v>336</v>
       </c>
       <c r="N1686" s="25" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="O1686" s="13"/>
       <c r="V1686" s="23"/>
@@ -54567,7 +54572,7 @@
         <v>337</v>
       </c>
       <c r="N1687" s="25" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="O1687" s="13"/>
       <c r="V1687" s="23"/>
@@ -54593,7 +54598,7 @@
         <v>338</v>
       </c>
       <c r="N1688" s="25" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="O1688" s="13"/>
       <c r="V1688" s="23"/>
@@ -54619,7 +54624,7 @@
         <v>339</v>
       </c>
       <c r="N1689" s="25" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="O1689" s="13"/>
       <c r="V1689" s="23"/>
@@ -54645,14 +54650,14 @@
         <v>340</v>
       </c>
       <c r="N1690" s="26" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="O1690" s="13" t="s">
         <v>22</v>
       </c>
       <c r="U1690" s="25"/>
       <c r="V1690" s="23" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="W1690" s="4"/>
     </row>
@@ -54676,7 +54681,7 @@
         <v>341</v>
       </c>
       <c r="N1691" s="25" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="O1691" s="13"/>
       <c r="P1691" s="21" t="s">

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.2 Padam Input Template.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Raja Files\Padam Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\texts\TS Jatai Working\Raja Files\Padam Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="TS 1.2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 1.2'!$B$1:$V$1691</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 1.2'!$A$1:$W$1691</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">'TS 1.2'!$V$10:$V$1690</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4959" uniqueCount="1454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4960" uniqueCount="1455">
   <si>
     <t>Passage</t>
   </si>
@@ -4390,12 +4390,15 @@
   </si>
   <si>
     <t>Elong</t>
+  </si>
+  <si>
+    <t>pre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4448,7 +4451,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4470,6 +4473,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4501,7 +4510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4715,6 +4724,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4999,9 +5011,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1691"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B800" sqref="B800"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A834" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O840" sqref="O840"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29751,10 +29763,12 @@
       <c r="M839" s="8">
         <v>27</v>
       </c>
-      <c r="N839" s="26" t="s">
+      <c r="N839" s="77" t="s">
         <v>811</v>
       </c>
-      <c r="O839" s="13"/>
+      <c r="O839" s="13" t="s">
+        <v>1454</v>
+      </c>
       <c r="V839" s="23"/>
       <c r="W839" s="4"/>
     </row>
